--- a/tabela de preços 2021.xlsx
+++ b/tabela de preços 2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS\Balcão Nanuque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TABELA DE PREÇOS" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TAB1'!$A$1:$B$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TABELA DE PREÇOS'!$A$1:$N$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TABELA DE PREÇOS'!$A$1:$N$108</definedName>
     <definedName name="TAB1_" localSheetId="1">'TAB1'!$A$1:$B$221</definedName>
-    <definedName name="TAB1_" localSheetId="2">'TAB2'!$A$1:$B$221</definedName>
-    <definedName name="TAB1_" localSheetId="3">'TAB3'!$A$1:$B$221</definedName>
+    <definedName name="TAB1_" localSheetId="2">'TAB2'!$A$1:$B$220</definedName>
+    <definedName name="TAB1_" localSheetId="3">'TAB3'!$A$1:$B$220</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="219">
   <si>
     <t>COD</t>
   </si>
@@ -611,9 +611,6 @@
     <t>REFRESCO FRUTYBA GUARANA C/ ACAI</t>
   </si>
   <si>
-    <t>LICOR DE MENTA GOLDEN PANTHER 12x900ml-VIDRO DESCARTAVEL</t>
-  </si>
-  <si>
     <t>AGUA BONAFONT MIN S/GAS 1,5LPET 8UN</t>
   </si>
   <si>
@@ -690,14 +687,56 @@
   </si>
   <si>
     <t>CULINARIO UHT DAMARE FOOD 1,01KG 12UN</t>
+  </si>
+  <si>
+    <t>UISQUE OLD EIGHT 12/1000ML</t>
+  </si>
+  <si>
+    <t>LIEBFRAUMILCH 12/750ML</t>
+  </si>
+  <si>
+    <t>APERITIVO CYNAR 12/900ML</t>
+  </si>
+  <si>
+    <t>UISQUE DRURY S 12/1000ML</t>
+  </si>
+  <si>
+    <t>GUARANA TACA CRISTAL 48 X 180 ML</t>
+  </si>
+  <si>
+    <t>LARANJA TACA CRISTAL 48 X 180 ML</t>
+  </si>
+  <si>
+    <t>UVA TACA CRISTAL 48 X 180 ML</t>
+  </si>
+  <si>
+    <t>LIMAO TACA CRISTAL 48 X 180</t>
+  </si>
+  <si>
+    <t>ABACAXI TACA CRISTAL 48 X 180</t>
+  </si>
+  <si>
+    <t>TACA CRISTAL</t>
+  </si>
+  <si>
+    <t>OUSADIA PEDACIN CEU COQ ALC PET 12X500ML</t>
+  </si>
+  <si>
+    <t>RED HOT TROPICAL ENERG. PET 6X2L</t>
+  </si>
+  <si>
+    <t>SYN PINK LEMONAD ICE COQ ALC PET24X300ML</t>
+  </si>
+  <si>
+    <t>JURUBEBA LEAO NORTE 600ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -881,7 +920,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -900,7 +939,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,9 +949,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,6 +963,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,10 +1299,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFC104"/>
+  <dimension ref="A1:XFC109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="30" zoomScaleNormal="40" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="30" zoomScaleNormal="40" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1284,10 +1323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1301,10 +1340,10 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1323,19 +1362,19 @@
         <v>1010188</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="10">
         <f>IFERROR(VLOOKUP($A2,'TAB1'!$A:$B,2,0),0)</f>
-        <v>118.13</v>
+        <v>123.53</v>
       </c>
       <c r="D2" s="10">
         <f>IFERROR(VLOOKUP($A2,'TAB2'!$A:$B,2,0),0)</f>
-        <v>115.85</v>
+        <v>121.16</v>
       </c>
       <c r="E2" s="10">
         <f>IFERROR(VLOOKUP($A2,'TAB3'!$A:$B,2,0),0)</f>
-        <v>113.58</v>
+        <v>118.78</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -1349,15 +1388,15 @@
       </c>
       <c r="L2" s="10">
         <f>IFERROR(VLOOKUP($J2,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.1</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="M2" s="10">
         <f>IFERROR(VLOOKUP($J2,'TAB2'!$A:$B,2,0),0)</f>
-        <v>31.48</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="N2" s="10">
         <f>IFERROR(VLOOKUP($J2,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.87</v>
+        <v>31.84</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1372,15 +1411,15 @@
       </c>
       <c r="C3" s="10">
         <f>IFERROR(VLOOKUP($A3,'TAB1'!$A:$B,2,0),0)</f>
-        <v>115.63</v>
+        <v>123.72</v>
       </c>
       <c r="D3" s="10">
         <f>IFERROR(VLOOKUP($A3,'TAB2'!$A:$B,2,0),0)</f>
-        <v>113.4</v>
+        <v>121.35</v>
       </c>
       <c r="E3" s="10">
         <f>IFERROR(VLOOKUP($A3,'TAB3'!$A:$B,2,0),0)</f>
-        <v>111.18</v>
+        <v>118.97</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1394,15 +1433,15 @@
       </c>
       <c r="L3" s="10">
         <f>IFERROR(VLOOKUP($J3,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.15</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="M3" s="10">
         <f>IFERROR(VLOOKUP($J3,'TAB2'!$A:$B,2,0),0)</f>
-        <v>31.53</v>
+        <v>32.53</v>
       </c>
       <c r="N3" s="10">
         <f>IFERROR(VLOOKUP($J3,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.91</v>
+        <v>31.89</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1417,15 +1456,15 @@
       </c>
       <c r="C4" s="10">
         <f>IFERROR(VLOOKUP($A4,'TAB1'!$A:$B,2,0),0)</f>
-        <v>85.95</v>
+        <v>91.8</v>
       </c>
       <c r="D4" s="10">
         <f>IFERROR(VLOOKUP($A4,'TAB2'!$A:$B,2,0),0)</f>
-        <v>84.3</v>
+        <v>90.03</v>
       </c>
       <c r="E4" s="10">
         <f>IFERROR(VLOOKUP($A4,'TAB3'!$A:$B,2,0),0)</f>
-        <v>82.65</v>
+        <v>88.27</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1439,15 +1478,15 @@
       </c>
       <c r="L4" s="10">
         <f>IFERROR(VLOOKUP($J4,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.130000000000003</v>
+        <v>33.15</v>
       </c>
       <c r="M4" s="10">
         <f>IFERROR(VLOOKUP($J4,'TAB2'!$A:$B,2,0),0)</f>
-        <v>31.51</v>
+        <v>32.51</v>
       </c>
       <c r="N4" s="10">
         <f>IFERROR(VLOOKUP($J4,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.89</v>
+        <v>31.87</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1462,15 +1501,15 @@
       </c>
       <c r="C5" s="10">
         <f>IFERROR(VLOOKUP($A5,'TAB1'!$A:$B,2,0),0)</f>
-        <v>113.47</v>
+        <v>118.61</v>
       </c>
       <c r="D5" s="10">
         <f>IFERROR(VLOOKUP($A5,'TAB2'!$A:$B,2,0),0)</f>
-        <v>111.29</v>
+        <v>116.33</v>
       </c>
       <c r="E5" s="10">
         <f>IFERROR(VLOOKUP($A5,'TAB3'!$A:$B,2,0),0)</f>
-        <v>109.1</v>
+        <v>114.05</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1484,15 +1523,15 @@
       </c>
       <c r="L5" s="10">
         <f>IFERROR(VLOOKUP($J5,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.130000000000003</v>
+        <v>33.15</v>
       </c>
       <c r="M5" s="10">
         <f>IFERROR(VLOOKUP($J5,'TAB2'!$A:$B,2,0),0)</f>
-        <v>31.51</v>
+        <v>32.51</v>
       </c>
       <c r="N5" s="10">
         <f>IFERROR(VLOOKUP($J5,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.89</v>
+        <v>31.87</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1507,15 +1546,15 @@
       </c>
       <c r="C6" s="10">
         <f>IFERROR(VLOOKUP($A6,'TAB1'!$A:$B,2,0),0)</f>
-        <v>77.61</v>
+        <v>83.14</v>
       </c>
       <c r="D6" s="10">
         <f>IFERROR(VLOOKUP($A6,'TAB2'!$A:$B,2,0),0)</f>
-        <v>76.12</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="E6" s="10">
         <f>IFERROR(VLOOKUP($A6,'TAB3'!$A:$B,2,0),0)</f>
-        <v>74.63</v>
+        <v>79.94</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1529,15 +1568,15 @@
       </c>
       <c r="L6" s="10">
         <f>IFERROR(VLOOKUP($J6,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.130000000000003</v>
+        <v>33.15</v>
       </c>
       <c r="M6" s="10">
         <f>IFERROR(VLOOKUP($J6,'TAB2'!$A:$B,2,0),0)</f>
-        <v>31.51</v>
+        <v>32.51</v>
       </c>
       <c r="N6" s="10">
         <f>IFERROR(VLOOKUP($J6,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.89</v>
+        <v>31.87</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1552,15 +1591,15 @@
       </c>
       <c r="C7" s="10">
         <f>IFERROR(VLOOKUP($A7,'TAB1'!$A:$B,2,0),0)</f>
-        <v>105.28</v>
+        <v>112.63</v>
       </c>
       <c r="D7" s="10">
         <f>IFERROR(VLOOKUP($A7,'TAB2'!$A:$B,2,0),0)</f>
-        <v>103.26</v>
+        <v>110.46</v>
       </c>
       <c r="E7" s="10">
         <f>IFERROR(VLOOKUP($A7,'TAB3'!$A:$B,2,0),0)</f>
-        <v>101.23</v>
+        <v>108.3</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1574,15 +1613,15 @@
       </c>
       <c r="L7" s="10">
         <f>IFERROR(VLOOKUP($J7,'TAB1'!$A:$B,2,0),0)</f>
-        <v>30.38</v>
+        <v>31.92</v>
       </c>
       <c r="M7" s="10">
         <f>IFERROR(VLOOKUP($J7,'TAB2'!$A:$B,2,0),0)</f>
-        <v>29.8</v>
+        <v>31.3</v>
       </c>
       <c r="N7" s="10">
         <f>IFERROR(VLOOKUP($J7,'TAB3'!$A:$B,2,0),0)</f>
-        <v>29.21</v>
+        <v>30.69</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1597,15 +1636,15 @@
       </c>
       <c r="C8" s="10">
         <f>IFERROR(VLOOKUP($A8,'TAB1'!$A:$B,2,0),0)</f>
-        <v>104.29</v>
+        <v>109.68</v>
       </c>
       <c r="D8" s="10">
         <f>IFERROR(VLOOKUP($A8,'TAB2'!$A:$B,2,0),0)</f>
-        <v>102.29</v>
+        <v>107.57</v>
       </c>
       <c r="E8" s="10">
         <f>IFERROR(VLOOKUP($A8,'TAB3'!$A:$B,2,0),0)</f>
-        <v>100.28</v>
+        <v>105.46</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1619,15 +1658,15 @@
       </c>
       <c r="L8" s="10">
         <f>IFERROR(VLOOKUP($J8,'TAB1'!$A:$B,2,0),0)</f>
-        <v>30.41</v>
+        <v>31.94</v>
       </c>
       <c r="M8" s="10">
         <f>IFERROR(VLOOKUP($J8,'TAB2'!$A:$B,2,0),0)</f>
-        <v>29.82</v>
+        <v>31.33</v>
       </c>
       <c r="N8" s="10">
         <f>IFERROR(VLOOKUP($J8,'TAB3'!$A:$B,2,0),0)</f>
-        <v>29.24</v>
+        <v>30.72</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1642,15 +1681,15 @@
       </c>
       <c r="C9" s="10">
         <f>IFERROR(VLOOKUP($A9,'TAB1'!$A:$B,2,0),0)</f>
-        <v>131.18</v>
+        <v>140.54</v>
       </c>
       <c r="D9" s="10">
         <f>IFERROR(VLOOKUP($A9,'TAB2'!$A:$B,2,0),0)</f>
-        <v>128.66</v>
+        <v>137.83000000000001</v>
       </c>
       <c r="E9" s="10">
         <f>IFERROR(VLOOKUP($A9,'TAB3'!$A:$B,2,0),0)</f>
-        <v>126.13</v>
+        <v>135.13</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1664,15 +1703,15 @@
       </c>
       <c r="L9" s="10">
         <f>IFERROR(VLOOKUP($J9,'TAB1'!$A:$B,2,0),0)</f>
-        <v>30.41</v>
+        <v>31.94</v>
       </c>
       <c r="M9" s="10">
         <f>IFERROR(VLOOKUP($J9,'TAB2'!$A:$B,2,0),0)</f>
-        <v>29.82</v>
+        <v>31.33</v>
       </c>
       <c r="N9" s="10">
         <f>IFERROR(VLOOKUP($J9,'TAB3'!$A:$B,2,0),0)</f>
-        <v>29.24</v>
+        <v>30.72</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1687,15 +1726,15 @@
       </c>
       <c r="C10" s="10">
         <f>IFERROR(VLOOKUP($A10,'TAB1'!$A:$B,2,0),0)</f>
-        <v>118.26</v>
+        <v>123.95</v>
       </c>
       <c r="D10" s="10">
         <f>IFERROR(VLOOKUP($A10,'TAB2'!$A:$B,2,0),0)</f>
-        <v>115.99</v>
+        <v>121.57</v>
       </c>
       <c r="E10" s="10">
         <f>IFERROR(VLOOKUP($A10,'TAB3'!$A:$B,2,0),0)</f>
-        <v>113.71</v>
+        <v>119.18</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1709,15 +1748,15 @@
       </c>
       <c r="L10" s="10">
         <f>IFERROR(VLOOKUP($J10,'TAB1'!$A:$B,2,0),0)</f>
-        <v>30.41</v>
+        <v>31.94</v>
       </c>
       <c r="M10" s="10">
         <f>IFERROR(VLOOKUP($J10,'TAB2'!$A:$B,2,0),0)</f>
-        <v>29.82</v>
+        <v>31.33</v>
       </c>
       <c r="N10" s="10">
         <f>IFERROR(VLOOKUP($J10,'TAB3'!$A:$B,2,0),0)</f>
-        <v>29.24</v>
+        <v>30.72</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1732,15 +1771,15 @@
       </c>
       <c r="C11" s="10">
         <f>IFERROR(VLOOKUP($A11,'TAB1'!$A:$B,2,0),0)</f>
-        <v>119.47</v>
+        <v>124.95</v>
       </c>
       <c r="D11" s="10">
         <f>IFERROR(VLOOKUP($A11,'TAB2'!$A:$B,2,0),0)</f>
-        <v>117.17</v>
+        <v>122.55</v>
       </c>
       <c r="E11" s="10">
         <f>IFERROR(VLOOKUP($A11,'TAB3'!$A:$B,2,0),0)</f>
-        <v>114.88</v>
+        <v>120.14</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1754,15 +1793,15 @@
       </c>
       <c r="L11" s="10">
         <f>IFERROR(VLOOKUP($J11,'TAB1'!$A:$B,2,0),0)</f>
-        <v>30.43</v>
+        <v>31.97</v>
       </c>
       <c r="M11" s="10">
         <f>IFERROR(VLOOKUP($J11,'TAB2'!$A:$B,2,0),0)</f>
-        <v>29.85</v>
+        <v>31.35</v>
       </c>
       <c r="N11" s="10">
         <f>IFERROR(VLOOKUP($J11,'TAB3'!$A:$B,2,0),0)</f>
-        <v>29.26</v>
+        <v>30.74</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1773,26 +1812,28 @@
         <v>903061</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="10">
         <f>IFERROR(VLOOKUP($A12,'TAB1'!$A:$B,2,0),0)</f>
-        <v>109.51</v>
+        <v>0</v>
       </c>
       <c r="D12" s="10">
         <f>IFERROR(VLOOKUP($A12,'TAB2'!$A:$B,2,0),0)</f>
-        <v>107.41</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
         <f>IFERROR(VLOOKUP($A12,'TAB3'!$A:$B,2,0),0)</f>
-        <v>105.3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="19"/>
       <c r="L12" s="10">
         <f>IFERROR(VLOOKUP($J12,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -1814,39 +1855,41 @@
         <v>617</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="10">
         <f>IFERROR(VLOOKUP($A13,'TAB1'!$A:$B,2,0),0)</f>
-        <v>85.5</v>
+        <v>94.28</v>
       </c>
       <c r="D13" s="10">
         <f>IFERROR(VLOOKUP($A13,'TAB2'!$A:$B,2,0),0)</f>
-        <v>83.85</v>
+        <v>92.47</v>
       </c>
       <c r="E13" s="10">
         <f>IFERROR(VLOOKUP($A13,'TAB3'!$A:$B,2,0),0)</f>
-        <v>82.21</v>
+        <v>90.65</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="20"/>
+      <c r="J13" s="12">
+        <v>90</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="L13" s="10">
         <f>IFERROR(VLOOKUP($J13,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>21.01</v>
       </c>
       <c r="M13" s="10">
         <f>IFERROR(VLOOKUP($J13,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="N13" s="10">
         <f>IFERROR(VLOOKUP($J13,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1857,51 +1900,51 @@
         <v>1010056</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10">
         <f>IFERROR(VLOOKUP($A14,'TAB1'!$A:$B,2,0),0)</f>
-        <v>108.4</v>
+        <v>115.98</v>
       </c>
       <c r="D14" s="10">
         <f>IFERROR(VLOOKUP($A14,'TAB2'!$A:$B,2,0),0)</f>
-        <v>106.32</v>
+        <v>113.75</v>
       </c>
       <c r="E14" s="10">
         <f>IFERROR(VLOOKUP($A14,'TAB3'!$A:$B,2,0),0)</f>
-        <v>104.24</v>
+        <v>111.52</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="14"/>
       <c r="J14" s="12">
-        <v>90</v>
+        <v>4341</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="10">
         <f>IFERROR(VLOOKUP($J14,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M14" s="10">
         <f>IFERROR(VLOOKUP($J14,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N14" s="10">
         <f>IFERROR(VLOOKUP($J14,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="10">
         <f>IFERROR(VLOOKUP($A15,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -1919,22 +1962,22 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="10">
         <f>IFERROR(VLOOKUP($J15,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M15" s="10">
         <f>IFERROR(VLOOKUP($J15,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N15" s="10">
         <f>IFERROR(VLOOKUP($J15,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1949,37 +1992,37 @@
       </c>
       <c r="C16" s="10">
         <f>IFERROR(VLOOKUP($A16,'TAB1'!$A:$B,2,0),0)</f>
-        <v>58.38</v>
+        <v>61.26</v>
       </c>
       <c r="D16" s="10">
         <f>IFERROR(VLOOKUP($A16,'TAB2'!$A:$B,2,0),0)</f>
-        <v>57.25</v>
+        <v>60.08</v>
       </c>
       <c r="E16" s="10">
         <f>IFERROR(VLOOKUP($A16,'TAB3'!$A:$B,2,0),0)</f>
-        <v>56.13</v>
+        <v>58.91</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12">
-        <v>4343</v>
+        <v>9803</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="L16" s="10">
         <f>IFERROR(VLOOKUP($J16,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M16" s="10">
         <f>IFERROR(VLOOKUP($J16,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N16" s="10">
         <f>IFERROR(VLOOKUP($J16,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1994,37 +2037,37 @@
       </c>
       <c r="C17" s="10">
         <f>IFERROR(VLOOKUP($A17,'TAB1'!$A:$B,2,0),0)</f>
-        <v>77.69</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="D17" s="10">
         <f>IFERROR(VLOOKUP($A17,'TAB2'!$A:$B,2,0),0)</f>
-        <v>76.19</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="E17" s="10">
         <f>IFERROR(VLOOKUP($A17,'TAB3'!$A:$B,2,0),0)</f>
-        <v>74.7</v>
+        <v>75.17</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="14"/>
       <c r="J17" s="12">
-        <v>9803</v>
+        <v>4344</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="L17" s="10">
         <f>IFERROR(VLOOKUP($J17,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M17" s="10">
         <f>IFERROR(VLOOKUP($J17,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N17" s="10">
         <f>IFERROR(VLOOKUP($J17,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2039,37 +2082,37 @@
       </c>
       <c r="C18" s="10">
         <f>IFERROR(VLOOKUP($A18,'TAB1'!$A:$B,2,0),0)</f>
-        <v>79.23</v>
+        <v>0</v>
       </c>
       <c r="D18" s="10">
         <f>IFERROR(VLOOKUP($A18,'TAB2'!$A:$B,2,0),0)</f>
-        <v>77.709999999999994</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
         <f>IFERROR(VLOOKUP($A18,'TAB3'!$A:$B,2,0),0)</f>
-        <v>76.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="14"/>
       <c r="J18" s="12">
-        <v>4344</v>
+        <v>9805</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L18" s="10">
         <f>IFERROR(VLOOKUP($J18,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M18" s="10">
         <f>IFERROR(VLOOKUP($J18,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N18" s="10">
         <f>IFERROR(VLOOKUP($J18,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2084,37 +2127,37 @@
       </c>
       <c r="C19" s="10">
         <f>IFERROR(VLOOKUP($A19,'TAB1'!$A:$B,2,0),0)</f>
-        <v>66.959999999999994</v>
+        <v>72.819999999999993</v>
       </c>
       <c r="D19" s="10">
         <f>IFERROR(VLOOKUP($A19,'TAB2'!$A:$B,2,0),0)</f>
-        <v>65.680000000000007</v>
+        <v>71.42</v>
       </c>
       <c r="E19" s="10">
         <f>IFERROR(VLOOKUP($A19,'TAB3'!$A:$B,2,0),0)</f>
-        <v>64.39</v>
+        <v>70.02</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12">
-        <v>9805</v>
+        <v>98066</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="L19" s="10">
         <f>IFERROR(VLOOKUP($J19,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M19" s="10">
         <f>IFERROR(VLOOKUP($J19,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N19" s="10">
         <f>IFERROR(VLOOKUP($J19,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2125,51 +2168,51 @@
         <v>619</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="10">
         <f>IFERROR(VLOOKUP($A20,'TAB1'!$A:$B,2,0),0)</f>
-        <v>61.47</v>
+        <v>67.27</v>
       </c>
       <c r="D20" s="10">
         <f>IFERROR(VLOOKUP($A20,'TAB2'!$A:$B,2,0),0)</f>
-        <v>60.29</v>
+        <v>65.98</v>
       </c>
       <c r="E20" s="10">
         <f>IFERROR(VLOOKUP($A20,'TAB3'!$A:$B,2,0),0)</f>
-        <v>59.1</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="12">
-        <v>98066</v>
+        <v>91</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="L20" s="10">
         <f>IFERROR(VLOOKUP($J20,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M20" s="10">
         <f>IFERROR(VLOOKUP($J20,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N20" s="10">
         <f>IFERROR(VLOOKUP($J20,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="10">
         <f>IFERROR(VLOOKUP($A21,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -2187,22 +2230,22 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="12">
-        <v>91</v>
+        <v>4376</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="L21" s="10">
         <f>IFERROR(VLOOKUP($J21,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M21" s="10">
         <f>IFERROR(VLOOKUP($J21,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N21" s="10">
         <f>IFERROR(VLOOKUP($J21,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2232,22 +2275,22 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L22" s="10">
         <f>IFERROR(VLOOKUP($J22,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
       <c r="M22" s="10">
         <f>IFERROR(VLOOKUP($J22,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
       <c r="N22" s="10">
         <f>IFERROR(VLOOKUP($J22,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2262,37 +2305,35 @@
       </c>
       <c r="C23" s="10">
         <f>IFERROR(VLOOKUP($A23,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.07</v>
+        <v>33.61</v>
       </c>
       <c r="D23" s="10">
         <f>IFERROR(VLOOKUP($A23,'TAB2'!$A:$B,2,0),0)</f>
-        <v>31.46</v>
+        <v>32.96</v>
       </c>
       <c r="E23" s="10">
         <f>IFERROR(VLOOKUP($A23,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.84</v>
+        <v>32.31</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="12">
-        <v>4378</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="J23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="19"/>
       <c r="L23" s="10">
         <f>IFERROR(VLOOKUP($J23,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.22</v>
+        <v>0</v>
       </c>
       <c r="M23" s="10">
         <f>IFERROR(VLOOKUP($J23,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>0</v>
       </c>
       <c r="N23" s="10">
         <f>IFERROR(VLOOKUP($J23,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.45</v>
+        <v>0</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2307,33 +2348,37 @@
       </c>
       <c r="C24" s="10">
         <f>IFERROR(VLOOKUP($A24,'TAB1'!$A:$B,2,0),0)</f>
-        <v>35.549999999999997</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="D24" s="10">
         <f>IFERROR(VLOOKUP($A24,'TAB2'!$A:$B,2,0),0)</f>
-        <v>34.869999999999997</v>
+        <v>34.97</v>
       </c>
       <c r="E24" s="10">
         <f>IFERROR(VLOOKUP($A24,'TAB3'!$A:$B,2,0),0)</f>
-        <v>34.18</v>
+        <v>34.29</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="12">
+        <v>1060101</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="L24" s="10">
         <f>IFERROR(VLOOKUP($J24,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M24" s="10">
         <f>IFERROR(VLOOKUP($J24,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>16.09</v>
       </c>
       <c r="N24" s="10">
         <f>IFERROR(VLOOKUP($J24,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>15.77</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2348,35 +2393,37 @@
       </c>
       <c r="C25" s="10">
         <f>IFERROR(VLOOKUP($A25,'TAB1'!$A:$B,2,0),0)</f>
-        <v>36.630000000000003</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="D25" s="10">
         <f>IFERROR(VLOOKUP($A25,'TAB2'!$A:$B,2,0),0)</f>
-        <v>35.93</v>
+        <v>37.6</v>
       </c>
       <c r="E25" s="10">
         <f>IFERROR(VLOOKUP($A25,'TAB3'!$A:$B,2,0),0)</f>
-        <v>35.22</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="20"/>
+      <c r="J25" s="12">
+        <v>1050023</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="L25" s="10">
         <f>IFERROR(VLOOKUP($J25,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>19.78</v>
       </c>
       <c r="M25" s="10">
         <f>IFERROR(VLOOKUP($J25,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N25" s="10">
         <f>IFERROR(VLOOKUP($J25,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>19.02</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2391,37 +2438,37 @@
       </c>
       <c r="C26" s="10">
         <f>IFERROR(VLOOKUP($A26,'TAB1'!$A:$B,2,0),0)</f>
-        <v>41.23</v>
+        <v>45.43</v>
       </c>
       <c r="D26" s="10">
         <f>IFERROR(VLOOKUP($A26,'TAB2'!$A:$B,2,0),0)</f>
-        <v>40.44</v>
+        <v>44.56</v>
       </c>
       <c r="E26" s="10">
         <f>IFERROR(VLOOKUP($A26,'TAB3'!$A:$B,2,0),0)</f>
-        <v>39.64</v>
+        <v>43.69</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="12">
-        <v>1060101</v>
+        <v>1050003</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L26" s="10">
         <f>IFERROR(VLOOKUP($J26,'TAB1'!$A:$B,2,0),0)</f>
-        <v>15.66</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M26" s="10">
         <f>IFERROR(VLOOKUP($J26,'TAB2'!$A:$B,2,0),0)</f>
-        <v>15.36</v>
+        <v>18.54</v>
       </c>
       <c r="N26" s="10">
         <f>IFERROR(VLOOKUP($J26,'TAB3'!$A:$B,2,0),0)</f>
-        <v>15.05</v>
+        <v>18.18</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2436,37 +2483,37 @@
       </c>
       <c r="C27" s="10">
         <f>IFERROR(VLOOKUP($A27,'TAB1'!$A:$B,2,0),0)</f>
-        <v>35.229999999999997</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="D27" s="10">
         <f>IFERROR(VLOOKUP($A27,'TAB2'!$A:$B,2,0),0)</f>
-        <v>34.56</v>
+        <v>36.17</v>
       </c>
       <c r="E27" s="10">
         <f>IFERROR(VLOOKUP($A27,'TAB3'!$A:$B,2,0),0)</f>
-        <v>33.880000000000003</v>
+        <v>35.46</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="12">
-        <v>1050023</v>
+        <v>195374</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L27" s="10">
         <f>IFERROR(VLOOKUP($J27,'TAB1'!$A:$B,2,0),0)</f>
-        <v>18.91</v>
+        <v>0</v>
       </c>
       <c r="M27" s="10">
         <f>IFERROR(VLOOKUP($J27,'TAB2'!$A:$B,2,0),0)</f>
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="N27" s="10">
         <f>IFERROR(VLOOKUP($J27,'TAB3'!$A:$B,2,0),0)</f>
-        <v>18.190000000000001</v>
+        <v>0</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2481,37 +2528,35 @@
       </c>
       <c r="C28" s="10">
         <f>IFERROR(VLOOKUP($A28,'TAB1'!$A:$B,2,0),0)</f>
-        <v>40.78</v>
+        <v>42.68</v>
       </c>
       <c r="D28" s="10">
         <f>IFERROR(VLOOKUP($A28,'TAB2'!$A:$B,2,0),0)</f>
-        <v>40</v>
+        <v>41.86</v>
       </c>
       <c r="E28" s="10">
         <f>IFERROR(VLOOKUP($A28,'TAB3'!$A:$B,2,0),0)</f>
-        <v>39.21</v>
+        <v>41.04</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="12">
-        <v>1050003</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="J28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="19"/>
       <c r="L28" s="10">
         <f>IFERROR(VLOOKUP($J28,'TAB1'!$A:$B,2,0),0)</f>
-        <v>18.09</v>
+        <v>0</v>
       </c>
       <c r="M28" s="10">
         <f>IFERROR(VLOOKUP($J28,'TAB2'!$A:$B,2,0),0)</f>
-        <v>17.739999999999998</v>
+        <v>0</v>
       </c>
       <c r="N28" s="10">
         <f>IFERROR(VLOOKUP($J28,'TAB3'!$A:$B,2,0),0)</f>
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -2526,47 +2571,47 @@
       </c>
       <c r="C29" s="10">
         <f>IFERROR(VLOOKUP($A29,'TAB1'!$A:$B,2,0),0)</f>
-        <v>46.77</v>
+        <v>0</v>
       </c>
       <c r="D29" s="10">
         <f>IFERROR(VLOOKUP($A29,'TAB2'!$A:$B,2,0),0)</f>
-        <v>45.87</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10">
         <f>IFERROR(VLOOKUP($A29,'TAB3'!$A:$B,2,0),0)</f>
-        <v>44.97</v>
+        <v>0</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="12">
-        <v>195374</v>
+        <v>195349</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L29" s="10">
         <f>IFERROR(VLOOKUP($J29,'TAB1'!$A:$B,2,0),0)</f>
-        <v>17.68</v>
+        <v>0</v>
       </c>
       <c r="M29" s="10">
         <f>IFERROR(VLOOKUP($J29,'TAB2'!$A:$B,2,0),0)</f>
-        <v>17.34</v>
+        <v>0</v>
       </c>
       <c r="N29" s="10">
         <f>IFERROR(VLOOKUP($J29,'TAB3'!$A:$B,2,0),0)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="10">
         <f>IFERROR(VLOOKUP($A30,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -2583,19 +2628,23 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="12">
+        <v>1060051</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="L30" s="10">
         <f>IFERROR(VLOOKUP($J30,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>15.43</v>
       </c>
       <c r="M30" s="10">
         <f>IFERROR(VLOOKUP($J30,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="N30" s="10">
         <f>IFERROR(VLOOKUP($J30,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>14.83</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2610,35 +2659,37 @@
       </c>
       <c r="C31" s="10">
         <f>IFERROR(VLOOKUP($A31,'TAB1'!$A:$B,2,0),0)</f>
-        <v>25.29</v>
+        <v>26.5</v>
       </c>
       <c r="D31" s="10">
         <f>IFERROR(VLOOKUP($A31,'TAB2'!$A:$B,2,0),0)</f>
-        <v>24.8</v>
+        <v>25.99</v>
       </c>
       <c r="E31" s="10">
         <f>IFERROR(VLOOKUP($A31,'TAB3'!$A:$B,2,0),0)</f>
-        <v>24.32</v>
+        <v>25.48</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="20"/>
+      <c r="J31" s="12">
+        <v>1060052</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="L31" s="10">
         <f>IFERROR(VLOOKUP($J31,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="M31" s="10">
         <f>IFERROR(VLOOKUP($J31,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>19.47</v>
       </c>
       <c r="N31" s="10">
         <f>IFERROR(VLOOKUP($J31,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2653,37 +2704,37 @@
       </c>
       <c r="C32" s="10">
         <f>IFERROR(VLOOKUP($A32,'TAB1'!$A:$B,2,0),0)</f>
-        <v>30.66</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="D32" s="10">
         <f>IFERROR(VLOOKUP($A32,'TAB2'!$A:$B,2,0),0)</f>
-        <v>30.07</v>
+        <v>32.83</v>
       </c>
       <c r="E32" s="10">
         <f>IFERROR(VLOOKUP($A32,'TAB3'!$A:$B,2,0),0)</f>
-        <v>29.48</v>
+        <v>32.19</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12">
-        <v>195349</v>
+        <v>1050022</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L32" s="10">
         <f>IFERROR(VLOOKUP($J32,'TAB1'!$A:$B,2,0),0)</f>
-        <v>14.25</v>
+        <v>21.48</v>
       </c>
       <c r="M32" s="10">
         <f>IFERROR(VLOOKUP($J32,'TAB2'!$A:$B,2,0),0)</f>
-        <v>13.97</v>
+        <v>21.06</v>
       </c>
       <c r="N32" s="10">
         <f>IFERROR(VLOOKUP($J32,'TAB3'!$A:$B,2,0),0)</f>
-        <v>13.7</v>
+        <v>20.65</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2698,37 +2749,37 @@
       </c>
       <c r="C33" s="10">
         <f>IFERROR(VLOOKUP($A33,'TAB1'!$A:$B,2,0),0)</f>
-        <v>38.979999999999997</v>
+        <v>42.25</v>
       </c>
       <c r="D33" s="10">
         <f>IFERROR(VLOOKUP($A33,'TAB2'!$A:$B,2,0),0)</f>
-        <v>38.229999999999997</v>
+        <v>41.44</v>
       </c>
       <c r="E33" s="10">
         <f>IFERROR(VLOOKUP($A33,'TAB3'!$A:$B,2,0),0)</f>
-        <v>37.479999999999997</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12">
-        <v>1060051</v>
+        <v>1050002</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L33" s="10">
         <f>IFERROR(VLOOKUP($J33,'TAB1'!$A:$B,2,0),0)</f>
-        <v>14.83</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="M33" s="10">
         <f>IFERROR(VLOOKUP($J33,'TAB2'!$A:$B,2,0),0)</f>
-        <v>14.54</v>
+        <v>19.87</v>
       </c>
       <c r="N33" s="10">
         <f>IFERROR(VLOOKUP($J33,'TAB3'!$A:$B,2,0),0)</f>
-        <v>14.26</v>
+        <v>19.48</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2743,37 +2794,37 @@
       </c>
       <c r="C34" s="10">
         <f>IFERROR(VLOOKUP($A34,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.81</v>
+        <v>34.33</v>
       </c>
       <c r="D34" s="10">
         <f>IFERROR(VLOOKUP($A34,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.18</v>
+        <v>33.67</v>
       </c>
       <c r="E34" s="10">
         <f>IFERROR(VLOOKUP($A34,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.55</v>
+        <v>33.01</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="12">
-        <v>1060052</v>
+        <v>9990043</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L34" s="10">
         <f>IFERROR(VLOOKUP($J34,'TAB1'!$A:$B,2,0),0)</f>
-        <v>19.02</v>
+        <v>0</v>
       </c>
       <c r="M34" s="10">
         <f>IFERROR(VLOOKUP($J34,'TAB2'!$A:$B,2,0),0)</f>
-        <v>18.649999999999999</v>
+        <v>0</v>
       </c>
       <c r="N34" s="10">
         <f>IFERROR(VLOOKUP($J34,'TAB3'!$A:$B,2,0),0)</f>
-        <v>18.29</v>
+        <v>0</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -2788,37 +2839,37 @@
       </c>
       <c r="C35" s="10">
         <f>IFERROR(VLOOKUP($A35,'TAB1'!$A:$B,2,0),0)</f>
-        <v>33.26</v>
+        <v>34.79</v>
       </c>
       <c r="D35" s="10">
         <f>IFERROR(VLOOKUP($A35,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.619999999999997</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="E35" s="10">
         <f>IFERROR(VLOOKUP($A35,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.98</v>
+        <v>33.46</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="12">
-        <v>1050022</v>
+        <v>195374</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="L35" s="10">
         <f>IFERROR(VLOOKUP($J35,'TAB1'!$A:$B,2,0),0)</f>
-        <v>20.63</v>
+        <v>0</v>
       </c>
       <c r="M35" s="10">
         <f>IFERROR(VLOOKUP($J35,'TAB2'!$A:$B,2,0),0)</f>
-        <v>20.239999999999998</v>
+        <v>0</v>
       </c>
       <c r="N35" s="10">
         <f>IFERROR(VLOOKUP($J35,'TAB3'!$A:$B,2,0),0)</f>
-        <v>19.84</v>
+        <v>0</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2833,37 +2884,35 @@
       </c>
       <c r="C36" s="10">
         <f>IFERROR(VLOOKUP($A36,'TAB1'!$A:$B,2,0),0)</f>
-        <v>31.59</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="D36" s="10">
         <f>IFERROR(VLOOKUP($A36,'TAB2'!$A:$B,2,0),0)</f>
-        <v>30.98</v>
+        <v>32.42</v>
       </c>
       <c r="E36" s="10">
         <f>IFERROR(VLOOKUP($A36,'TAB3'!$A:$B,2,0),0)</f>
-        <v>30.37</v>
+        <v>31.78</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="12">
-        <v>1050002</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="J36" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="19"/>
       <c r="L36" s="10">
         <f>IFERROR(VLOOKUP($J36,'TAB1'!$A:$B,2,0),0)</f>
-        <v>19.47</v>
+        <v>0</v>
       </c>
       <c r="M36" s="10">
         <f>IFERROR(VLOOKUP($J36,'TAB2'!$A:$B,2,0),0)</f>
-        <v>19.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="N36" s="10">
         <f>IFERROR(VLOOKUP($J36,'TAB3'!$A:$B,2,0),0)</f>
-        <v>18.72</v>
+        <v>0</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -2878,47 +2927,47 @@
       </c>
       <c r="C37" s="10">
         <f>IFERROR(VLOOKUP($A37,'TAB1'!$A:$B,2,0),0)</f>
-        <v>36.229999999999997</v>
+        <v>39.58</v>
       </c>
       <c r="D37" s="10">
         <f>IFERROR(VLOOKUP($A37,'TAB2'!$A:$B,2,0),0)</f>
-        <v>35.53</v>
+        <v>38.82</v>
       </c>
       <c r="E37" s="10">
         <f>IFERROR(VLOOKUP($A37,'TAB3'!$A:$B,2,0),0)</f>
-        <v>34.83</v>
+        <v>38.06</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12">
-        <v>9990043</v>
+        <v>501051</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L37" s="10">
         <f>IFERROR(VLOOKUP($J37,'TAB1'!$A:$B,2,0),0)</f>
-        <v>16.95</v>
+        <v>66.86</v>
       </c>
       <c r="M37" s="10">
         <f>IFERROR(VLOOKUP($J37,'TAB2'!$A:$B,2,0),0)</f>
-        <v>16.63</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N37" s="10">
         <f>IFERROR(VLOOKUP($J37,'TAB3'!$A:$B,2,0),0)</f>
-        <v>16.3</v>
+        <v>64.28</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="10">
         <f>IFERROR(VLOOKUP($A38,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -2936,22 +2985,22 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="12">
-        <v>195374</v>
+        <v>501077</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L38" s="10">
         <f>IFERROR(VLOOKUP($J38,'TAB1'!$A:$B,2,0),0)</f>
-        <v>17.68</v>
+        <v>66.86</v>
       </c>
       <c r="M38" s="10">
         <f>IFERROR(VLOOKUP($J38,'TAB2'!$A:$B,2,0),0)</f>
-        <v>17.34</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N38" s="10">
         <f>IFERROR(VLOOKUP($J38,'TAB3'!$A:$B,2,0),0)</f>
-        <v>17</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -2966,35 +3015,37 @@
       </c>
       <c r="C39" s="10">
         <f>IFERROR(VLOOKUP($A39,'TAB1'!$A:$B,2,0),0)</f>
-        <v>43.63</v>
+        <v>43.71</v>
       </c>
       <c r="D39" s="10">
         <f>IFERROR(VLOOKUP($A39,'TAB2'!$A:$B,2,0),0)</f>
-        <v>42.79</v>
+        <v>42.87</v>
       </c>
       <c r="E39" s="10">
         <f>IFERROR(VLOOKUP($A39,'TAB3'!$A:$B,2,0),0)</f>
-        <v>41.95</v>
+        <v>42.03</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" s="20"/>
+      <c r="J39" s="12">
+        <v>501055</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="L39" s="10">
         <f>IFERROR(VLOOKUP($J39,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>66.86</v>
       </c>
       <c r="M39" s="10">
         <f>IFERROR(VLOOKUP($J39,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N39" s="10">
         <f>IFERROR(VLOOKUP($J39,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3009,37 +3060,37 @@
       </c>
       <c r="C40" s="10">
         <f>IFERROR(VLOOKUP($A40,'TAB1'!$A:$B,2,0),0)</f>
-        <v>41.99</v>
+        <v>42.07</v>
       </c>
       <c r="D40" s="10">
         <f>IFERROR(VLOOKUP($A40,'TAB2'!$A:$B,2,0),0)</f>
-        <v>41.18</v>
+        <v>41.26</v>
       </c>
       <c r="E40" s="10">
         <f>IFERROR(VLOOKUP($A40,'TAB3'!$A:$B,2,0),0)</f>
-        <v>40.380000000000003</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12">
-        <v>501051</v>
+        <v>501076</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L40" s="10">
         <f>IFERROR(VLOOKUP($J40,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
       <c r="M40" s="10">
         <f>IFERROR(VLOOKUP($J40,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N40" s="10">
         <f>IFERROR(VLOOKUP($J40,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3054,37 +3105,37 @@
       </c>
       <c r="C41" s="10">
         <f>IFERROR(VLOOKUP($A41,'TAB1'!$A:$B,2,0),0)</f>
-        <v>39.53</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="D41" s="10">
         <f>IFERROR(VLOOKUP($A41,'TAB2'!$A:$B,2,0),0)</f>
-        <v>38.770000000000003</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="E41" s="10">
         <f>IFERROR(VLOOKUP($A41,'TAB3'!$A:$B,2,0),0)</f>
-        <v>38.01</v>
+        <v>39.33</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="12">
-        <v>501077</v>
+        <v>501054</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L41" s="10">
         <f>IFERROR(VLOOKUP($J41,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
       <c r="M41" s="10">
         <f>IFERROR(VLOOKUP($J41,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N41" s="10">
         <f>IFERROR(VLOOKUP($J41,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3099,37 +3150,37 @@
       </c>
       <c r="C42" s="10">
         <f>IFERROR(VLOOKUP($A42,'TAB1'!$A:$B,2,0),0)</f>
-        <v>109.31</v>
+        <v>100.6</v>
       </c>
       <c r="D42" s="10">
         <f>IFERROR(VLOOKUP($A42,'TAB2'!$A:$B,2,0),0)</f>
-        <v>107.2</v>
+        <v>98.67</v>
       </c>
       <c r="E42" s="10">
         <f>IFERROR(VLOOKUP($A42,'TAB3'!$A:$B,2,0),0)</f>
-        <v>105.1</v>
+        <v>96.73</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="12">
-        <v>501055</v>
+        <v>501053</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L42" s="10">
         <f>IFERROR(VLOOKUP($J42,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
       <c r="M42" s="10">
         <f>IFERROR(VLOOKUP($J42,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N42" s="10">
         <f>IFERROR(VLOOKUP($J42,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3155,32 +3206,32 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="12">
-        <v>501076</v>
+        <v>501052</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L43" s="10">
         <f>IFERROR(VLOOKUP($J43,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
       <c r="M43" s="10">
         <f>IFERROR(VLOOKUP($J43,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N43" s="10">
         <f>IFERROR(VLOOKUP($J43,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="10">
         <f>IFERROR(VLOOKUP($A44,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -3198,22 +3249,22 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12">
-        <v>501054</v>
+        <v>501078</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L44" s="10">
         <f>IFERROR(VLOOKUP($J44,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
       <c r="M44" s="10">
         <f>IFERROR(VLOOKUP($J44,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N44" s="10">
         <f>IFERROR(VLOOKUP($J44,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -3228,37 +3279,37 @@
       </c>
       <c r="C45" s="10">
         <f>IFERROR(VLOOKUP($A45,'TAB1'!$A:$B,2,0),0)</f>
-        <v>64.28</v>
+        <v>63.06</v>
       </c>
       <c r="D45" s="10">
         <f>IFERROR(VLOOKUP($A45,'TAB2'!$A:$B,2,0),0)</f>
-        <v>63.05</v>
+        <v>61.84</v>
       </c>
       <c r="E45" s="10">
         <f>IFERROR(VLOOKUP($A45,'TAB3'!$A:$B,2,0),0)</f>
-        <v>61.81</v>
+        <v>60.63</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="12">
-        <v>501053</v>
+        <v>501079</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L45" s="10">
         <f>IFERROR(VLOOKUP($J45,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>69.59</v>
       </c>
       <c r="M45" s="10">
         <f>IFERROR(VLOOKUP($J45,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>68.25</v>
       </c>
       <c r="N45" s="10">
         <f>IFERROR(VLOOKUP($J45,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>66.92</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -3273,37 +3324,37 @@
       </c>
       <c r="C46" s="10">
         <f>IFERROR(VLOOKUP($A46,'TAB1'!$A:$B,2,0),0)</f>
-        <v>46.43</v>
+        <v>51.78</v>
       </c>
       <c r="D46" s="10">
         <f>IFERROR(VLOOKUP($A46,'TAB2'!$A:$B,2,0),0)</f>
-        <v>45.54</v>
+        <v>50.79</v>
       </c>
       <c r="E46" s="10">
         <f>IFERROR(VLOOKUP($A46,'TAB3'!$A:$B,2,0),0)</f>
-        <v>44.65</v>
+        <v>49.79</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12">
-        <v>501052</v>
+        <v>501083</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L46" s="10">
         <f>IFERROR(VLOOKUP($J46,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>69.59</v>
       </c>
       <c r="M46" s="10">
         <f>IFERROR(VLOOKUP($J46,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>68.25</v>
       </c>
       <c r="N46" s="10">
         <f>IFERROR(VLOOKUP($J46,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>66.92</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -3318,37 +3369,37 @@
       </c>
       <c r="C47" s="10">
         <f>IFERROR(VLOOKUP($A47,'TAB1'!$A:$B,2,0),0)</f>
-        <v>64.28</v>
+        <v>63.06</v>
       </c>
       <c r="D47" s="10">
         <f>IFERROR(VLOOKUP($A47,'TAB2'!$A:$B,2,0),0)</f>
-        <v>63.05</v>
+        <v>61.84</v>
       </c>
       <c r="E47" s="10">
         <f>IFERROR(VLOOKUP($A47,'TAB3'!$A:$B,2,0),0)</f>
-        <v>61.81</v>
+        <v>60.63</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="12">
-        <v>501078</v>
+        <v>501086</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="L47" s="10">
         <f>IFERROR(VLOOKUP($J47,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
       <c r="M47" s="10">
         <f>IFERROR(VLOOKUP($J47,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="N47" s="10">
         <f>IFERROR(VLOOKUP($J47,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>64.28</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -3363,37 +3414,37 @@
       </c>
       <c r="C48" s="10">
         <f>IFERROR(VLOOKUP($A48,'TAB1'!$A:$B,2,0),0)</f>
-        <v>55.03</v>
+        <v>54.66</v>
       </c>
       <c r="D48" s="10">
         <f>IFERROR(VLOOKUP($A48,'TAB2'!$A:$B,2,0),0)</f>
-        <v>53.97</v>
+        <v>53.61</v>
       </c>
       <c r="E48" s="10">
         <f>IFERROR(VLOOKUP($A48,'TAB3'!$A:$B,2,0),0)</f>
-        <v>52.91</v>
+        <v>52.56</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="12">
-        <v>501079</v>
+        <v>501088</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="L48" s="10">
         <f>IFERROR(VLOOKUP($J48,'TAB1'!$A:$B,2,0),0)</f>
-        <v>54.45</v>
+        <v>69.59</v>
       </c>
       <c r="M48" s="10">
         <f>IFERROR(VLOOKUP($J48,'TAB2'!$A:$B,2,0),0)</f>
-        <v>53.41</v>
+        <v>68.25</v>
       </c>
       <c r="N48" s="10">
         <f>IFERROR(VLOOKUP($J48,'TAB3'!$A:$B,2,0),0)</f>
-        <v>52.36</v>
+        <v>66.92</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -3404,51 +3455,49 @@
         <v>621</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C49" s="10">
         <f>IFERROR(VLOOKUP($A49,'TAB1'!$A:$B,2,0),0)</f>
-        <v>43.26</v>
+        <v>44.66</v>
       </c>
       <c r="D49" s="10">
         <f>IFERROR(VLOOKUP($A49,'TAB2'!$A:$B,2,0),0)</f>
-        <v>42.43</v>
+        <v>43.8</v>
       </c>
       <c r="E49" s="10">
         <f>IFERROR(VLOOKUP($A49,'TAB3'!$A:$B,2,0),0)</f>
-        <v>41.6</v>
+        <v>42.94</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="12">
-        <v>501083</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="J49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" s="19"/>
       <c r="L49" s="10">
         <f>IFERROR(VLOOKUP($J49,'TAB1'!$A:$B,2,0),0)</f>
-        <v>54.45</v>
+        <v>0</v>
       </c>
       <c r="M49" s="10">
         <f>IFERROR(VLOOKUP($J49,'TAB2'!$A:$B,2,0),0)</f>
-        <v>53.41</v>
+        <v>0</v>
       </c>
       <c r="N49" s="10">
         <f>IFERROR(VLOOKUP($J49,'TAB3'!$A:$B,2,0),0)</f>
-        <v>52.36</v>
+        <v>0</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="10">
         <f>IFERROR(VLOOKUP($A50,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -3466,22 +3515,22 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="12">
-        <v>501086</v>
+        <v>63101</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L50" s="10">
         <f>IFERROR(VLOOKUP($J50,'TAB1'!$A:$B,2,0),0)</f>
-        <v>51.72</v>
+        <v>92.25</v>
       </c>
       <c r="M50" s="10">
         <f>IFERROR(VLOOKUP($J50,'TAB2'!$A:$B,2,0),0)</f>
-        <v>50.72</v>
+        <v>90.47</v>
       </c>
       <c r="N50" s="10">
         <f>IFERROR(VLOOKUP($J50,'TAB3'!$A:$B,2,0),0)</f>
-        <v>49.73</v>
+        <v>88.7</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -3496,35 +3545,37 @@
       </c>
       <c r="C51" s="10">
         <f>IFERROR(VLOOKUP($A51,'TAB1'!$A:$B,2,0),0)</f>
-        <v>496.89</v>
+        <v>541.29999999999995</v>
       </c>
       <c r="D51" s="10">
         <f>IFERROR(VLOOKUP($A51,'TAB2'!$A:$B,2,0),0)</f>
-        <v>487.34</v>
+        <v>530.89</v>
       </c>
       <c r="E51" s="10">
         <f>IFERROR(VLOOKUP($A51,'TAB3'!$A:$B,2,0),0)</f>
-        <v>477.78</v>
+        <v>520.48</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K51" s="20"/>
+      <c r="J51" s="12">
+        <v>63102</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="L51" s="10">
         <f>IFERROR(VLOOKUP($J51,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="M51" s="10">
         <f>IFERROR(VLOOKUP($J51,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>90.47</v>
       </c>
       <c r="N51" s="10">
         <f>IFERROR(VLOOKUP($J51,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>88.7</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -3550,32 +3601,32 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="12">
-        <v>63101</v>
+        <v>63103</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L52" s="10">
         <f>IFERROR(VLOOKUP($J52,'TAB1'!$A:$B,2,0),0)</f>
-        <v>92.25</v>
+        <v>105.77</v>
       </c>
       <c r="M52" s="10">
         <f>IFERROR(VLOOKUP($J52,'TAB2'!$A:$B,2,0),0)</f>
-        <v>90.47</v>
+        <v>103.73</v>
       </c>
       <c r="N52" s="10">
         <f>IFERROR(VLOOKUP($J52,'TAB3'!$A:$B,2,0),0)</f>
-        <v>88.7</v>
+        <v>101.7</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
     <row r="53" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="10">
         <f>IFERROR(VLOOKUP($A53,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -3593,10 +3644,10 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12">
-        <v>63102</v>
+        <v>63104</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L53" s="10">
         <f>IFERROR(VLOOKUP($J53,'TAB1'!$A:$B,2,0),0)</f>
@@ -3623,37 +3674,37 @@
       </c>
       <c r="C54" s="10">
         <f>IFERROR(VLOOKUP($A54,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.950000000000003</v>
+        <v>33.82</v>
       </c>
       <c r="D54" s="10">
         <f>IFERROR(VLOOKUP($A54,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.32</v>
+        <v>33.17</v>
       </c>
       <c r="E54" s="10">
         <f>IFERROR(VLOOKUP($A54,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.68</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="12">
-        <v>63103</v>
+        <v>63105</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L54" s="10">
         <f>IFERROR(VLOOKUP($J54,'TAB1'!$A:$B,2,0),0)</f>
-        <v>105.77</v>
+        <v>101.71</v>
       </c>
       <c r="M54" s="10">
         <f>IFERROR(VLOOKUP($J54,'TAB2'!$A:$B,2,0),0)</f>
-        <v>103.73</v>
+        <v>99.76</v>
       </c>
       <c r="N54" s="10">
         <f>IFERROR(VLOOKUP($J54,'TAB3'!$A:$B,2,0),0)</f>
-        <v>101.7</v>
+        <v>97.8</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -3668,37 +3719,37 @@
       </c>
       <c r="C55" s="10">
         <f>IFERROR(VLOOKUP($A55,'TAB1'!$A:$B,2,0),0)</f>
-        <v>27.79</v>
+        <v>31.15</v>
       </c>
       <c r="D55" s="10">
         <f>IFERROR(VLOOKUP($A55,'TAB2'!$A:$B,2,0),0)</f>
-        <v>27.25</v>
+        <v>30.55</v>
       </c>
       <c r="E55" s="10">
         <f>IFERROR(VLOOKUP($A55,'TAB3'!$A:$B,2,0),0)</f>
-        <v>26.72</v>
+        <v>29.95</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12">
-        <v>63104</v>
+        <v>63106</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L55" s="10">
         <f>IFERROR(VLOOKUP($J55,'TAB1'!$A:$B,2,0),0)</f>
-        <v>92.25</v>
+        <v>101.71</v>
       </c>
       <c r="M55" s="10">
         <f>IFERROR(VLOOKUP($J55,'TAB2'!$A:$B,2,0),0)</f>
-        <v>90.47</v>
+        <v>99.76</v>
       </c>
       <c r="N55" s="10">
         <f>IFERROR(VLOOKUP($J55,'TAB3'!$A:$B,2,0),0)</f>
-        <v>88.7</v>
+        <v>97.8</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -3713,25 +3764,25 @@
       </c>
       <c r="C56" s="10">
         <f>IFERROR(VLOOKUP($A56,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.979999999999997</v>
+        <v>32.31</v>
       </c>
       <c r="D56" s="10">
         <f>IFERROR(VLOOKUP($A56,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.35</v>
+        <v>31.69</v>
       </c>
       <c r="E56" s="10">
         <f>IFERROR(VLOOKUP($A56,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.72</v>
+        <v>31.06</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="12">
-        <v>63105</v>
+        <v>63107</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L56" s="10">
         <f>IFERROR(VLOOKUP($J56,'TAB1'!$A:$B,2,0),0)</f>
@@ -3758,25 +3809,25 @@
       </c>
       <c r="C57" s="10">
         <f>IFERROR(VLOOKUP($A57,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.950000000000003</v>
+        <v>32.76</v>
       </c>
       <c r="D57" s="10">
         <f>IFERROR(VLOOKUP($A57,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.32</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="E57" s="10">
         <f>IFERROR(VLOOKUP($A57,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.68</v>
+        <v>31.5</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12">
-        <v>63106</v>
+        <v>63108</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L57" s="10">
         <f>IFERROR(VLOOKUP($J57,'TAB1'!$A:$B,2,0),0)</f>
@@ -3803,25 +3854,25 @@
       </c>
       <c r="C58" s="10">
         <f>IFERROR(VLOOKUP($A58,'TAB1'!$A:$B,2,0),0)</f>
-        <v>27.35</v>
+        <v>31.36</v>
       </c>
       <c r="D58" s="10">
         <f>IFERROR(VLOOKUP($A58,'TAB2'!$A:$B,2,0),0)</f>
-        <v>26.83</v>
+        <v>30.76</v>
       </c>
       <c r="E58" s="10">
         <f>IFERROR(VLOOKUP($A58,'TAB3'!$A:$B,2,0),0)</f>
-        <v>26.3</v>
+        <v>30.16</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="12">
-        <v>63107</v>
+        <v>63109</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L58" s="10">
         <f>IFERROR(VLOOKUP($J58,'TAB1'!$A:$B,2,0),0)</f>
@@ -3848,37 +3899,35 @@
       </c>
       <c r="C59" s="10">
         <f>IFERROR(VLOOKUP($A59,'TAB1'!$A:$B,2,0),0)</f>
-        <v>32.979999999999997</v>
+        <v>32.31</v>
       </c>
       <c r="D59" s="10">
         <f>IFERROR(VLOOKUP($A59,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.35</v>
+        <v>31.69</v>
       </c>
       <c r="E59" s="10">
         <f>IFERROR(VLOOKUP($A59,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.72</v>
+        <v>31.06</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="12">
-        <v>63108</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="J59" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K59" s="19"/>
       <c r="L59" s="10">
         <f>IFERROR(VLOOKUP($J59,'TAB1'!$A:$B,2,0),0)</f>
-        <v>101.71</v>
+        <v>0</v>
       </c>
       <c r="M59" s="10">
         <f>IFERROR(VLOOKUP($J59,'TAB2'!$A:$B,2,0),0)</f>
-        <v>99.76</v>
+        <v>0</v>
       </c>
       <c r="N59" s="10">
         <f>IFERROR(VLOOKUP($J59,'TAB3'!$A:$B,2,0),0)</f>
-        <v>97.8</v>
+        <v>0</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -3893,37 +3942,37 @@
       </c>
       <c r="C60" s="10">
         <f>IFERROR(VLOOKUP($A60,'TAB1'!$A:$B,2,0),0)</f>
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="D60" s="10">
         <f>IFERROR(VLOOKUP($A60,'TAB2'!$A:$B,2,0),0)</f>
-        <v>26.72</v>
+        <v>0</v>
       </c>
       <c r="E60" s="10">
         <f>IFERROR(VLOOKUP($A60,'TAB3'!$A:$B,2,0),0)</f>
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="12">
-        <v>63109</v>
+        <v>435</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L60" s="10">
         <f>IFERROR(VLOOKUP($J60,'TAB1'!$A:$B,2,0),0)</f>
-        <v>101.71</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="M60" s="10">
         <f>IFERROR(VLOOKUP($J60,'TAB2'!$A:$B,2,0),0)</f>
-        <v>99.76</v>
+        <v>32.39</v>
       </c>
       <c r="N60" s="10">
         <f>IFERROR(VLOOKUP($J60,'TAB3'!$A:$B,2,0),0)</f>
-        <v>97.8</v>
+        <v>31.75</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -3938,35 +3987,37 @@
       </c>
       <c r="C61" s="10">
         <f>IFERROR(VLOOKUP($A61,'TAB1'!$A:$B,2,0),0)</f>
-        <v>27.15</v>
+        <v>0</v>
       </c>
       <c r="D61" s="10">
         <f>IFERROR(VLOOKUP($A61,'TAB2'!$A:$B,2,0),0)</f>
-        <v>26.63</v>
+        <v>0</v>
       </c>
       <c r="E61" s="10">
         <f>IFERROR(VLOOKUP($A61,'TAB3'!$A:$B,2,0),0)</f>
-        <v>26.11</v>
+        <v>0</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="K61" s="20"/>
+      <c r="J61" s="12">
+        <v>1776</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="L61" s="10">
         <f>IFERROR(VLOOKUP($J61,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>213.88</v>
       </c>
       <c r="M61" s="10">
         <f>IFERROR(VLOOKUP($J61,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>209.76</v>
       </c>
       <c r="N61" s="10">
         <f>IFERROR(VLOOKUP($J61,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>205.65</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -3981,37 +4032,35 @@
       </c>
       <c r="C62" s="10">
         <f>IFERROR(VLOOKUP($A62,'TAB1'!$A:$B,2,0),0)</f>
-        <v>27.19</v>
+        <v>0</v>
       </c>
       <c r="D62" s="10">
         <f>IFERROR(VLOOKUP($A62,'TAB2'!$A:$B,2,0),0)</f>
-        <v>26.66</v>
+        <v>0</v>
       </c>
       <c r="E62" s="10">
         <f>IFERROR(VLOOKUP($A62,'TAB3'!$A:$B,2,0),0)</f>
-        <v>26.14</v>
+        <v>0</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="12">
-        <v>435</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="J62" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K62" s="19"/>
       <c r="L62" s="10">
         <f>IFERROR(VLOOKUP($J62,'TAB1'!$A:$B,2,0),0)</f>
-        <v>33.020000000000003</v>
+        <v>0</v>
       </c>
       <c r="M62" s="10">
         <f>IFERROR(VLOOKUP($J62,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.39</v>
+        <v>0</v>
       </c>
       <c r="N62" s="10">
         <f>IFERROR(VLOOKUP($J62,'TAB3'!$A:$B,2,0),0)</f>
-        <v>31.75</v>
+        <v>0</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4041,32 +4090,32 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="12">
-        <v>1776</v>
+        <v>503017</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="L63" s="10">
         <f>IFERROR(VLOOKUP($J63,'TAB1'!$A:$B,2,0),0)</f>
-        <v>213.88</v>
+        <v>64.31</v>
       </c>
       <c r="M63" s="10">
         <f>IFERROR(VLOOKUP($J63,'TAB2'!$A:$B,2,0),0)</f>
-        <v>209.76</v>
+        <v>63.07</v>
       </c>
       <c r="N63" s="10">
         <f>IFERROR(VLOOKUP($J63,'TAB3'!$A:$B,2,0),0)</f>
-        <v>205.65</v>
+        <v>61.83</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="10">
         <f>IFERROR(VLOOKUP($A64,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4083,21 +4132,23 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K64" s="20"/>
+      <c r="J64" s="12">
+        <v>191</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="L64" s="10">
         <f>IFERROR(VLOOKUP($J64,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>52.98</v>
       </c>
       <c r="M64" s="10">
         <f>IFERROR(VLOOKUP($J64,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>51.96</v>
       </c>
       <c r="N64" s="10">
         <f>IFERROR(VLOOKUP($J64,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>50.94</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4127,22 +4178,22 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="12">
-        <v>503017</v>
+        <v>1050222</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="L65" s="10">
         <f>IFERROR(VLOOKUP($J65,'TAB1'!$A:$B,2,0),0)</f>
-        <v>56.06</v>
+        <v>43.87</v>
       </c>
       <c r="M65" s="10">
         <f>IFERROR(VLOOKUP($J65,'TAB2'!$A:$B,2,0),0)</f>
-        <v>54.98</v>
+        <v>43.03</v>
       </c>
       <c r="N65" s="10">
         <f>IFERROR(VLOOKUP($J65,'TAB3'!$A:$B,2,0),0)</f>
-        <v>53.9</v>
+        <v>42.18</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -4157,37 +4208,37 @@
       </c>
       <c r="C66" s="10">
         <f>IFERROR(VLOOKUP($A66,'TAB1'!$A:$B,2,0),0)</f>
-        <v>25.14</v>
+        <v>28.7</v>
       </c>
       <c r="D66" s="10">
         <f>IFERROR(VLOOKUP($A66,'TAB2'!$A:$B,2,0),0)</f>
-        <v>24.66</v>
+        <v>28.15</v>
       </c>
       <c r="E66" s="10">
         <f>IFERROR(VLOOKUP($A66,'TAB3'!$A:$B,2,0),0)</f>
-        <v>24.17</v>
+        <v>27.6</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="12">
-        <v>191</v>
+        <v>1008</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="L66" s="10">
         <f>IFERROR(VLOOKUP($J66,'TAB1'!$A:$B,2,0),0)</f>
-        <v>63.02</v>
+        <v>55.96</v>
       </c>
       <c r="M66" s="10">
         <f>IFERROR(VLOOKUP($J66,'TAB2'!$A:$B,2,0),0)</f>
-        <v>61.81</v>
+        <v>54.88</v>
       </c>
       <c r="N66" s="10">
         <f>IFERROR(VLOOKUP($J66,'TAB3'!$A:$B,2,0),0)</f>
-        <v>60.6</v>
+        <v>53.81</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -4202,37 +4253,37 @@
       </c>
       <c r="C67" s="10">
         <f>IFERROR(VLOOKUP($A67,'TAB1'!$A:$B,2,0),0)</f>
-        <v>25.11</v>
+        <v>28.67</v>
       </c>
       <c r="D67" s="10">
         <f>IFERROR(VLOOKUP($A67,'TAB2'!$A:$B,2,0),0)</f>
-        <v>24.63</v>
+        <v>28.12</v>
       </c>
       <c r="E67" s="10">
         <f>IFERROR(VLOOKUP($A67,'TAB3'!$A:$B,2,0),0)</f>
-        <v>24.14</v>
+        <v>27.57</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="12">
-        <v>1050222</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>145</v>
+      <c r="J67" s="8">
+        <v>190</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="L67" s="10">
         <f>IFERROR(VLOOKUP($J67,'TAB1'!$A:$B,2,0),0)</f>
-        <v>41.91</v>
+        <v>32.25</v>
       </c>
       <c r="M67" s="10">
         <f>IFERROR(VLOOKUP($J67,'TAB2'!$A:$B,2,0),0)</f>
-        <v>41.1</v>
+        <v>31.63</v>
       </c>
       <c r="N67" s="10">
         <f>IFERROR(VLOOKUP($J67,'TAB3'!$A:$B,2,0),0)</f>
-        <v>40.29</v>
+        <v>31.01</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -4247,37 +4298,37 @@
       </c>
       <c r="C68" s="10">
         <f>IFERROR(VLOOKUP($A68,'TAB1'!$A:$B,2,0),0)</f>
-        <v>25.14</v>
+        <v>28.7</v>
       </c>
       <c r="D68" s="10">
         <f>IFERROR(VLOOKUP($A68,'TAB2'!$A:$B,2,0),0)</f>
-        <v>24.66</v>
+        <v>28.14</v>
       </c>
       <c r="E68" s="10">
         <f>IFERROR(VLOOKUP($A68,'TAB3'!$A:$B,2,0),0)</f>
-        <v>24.18</v>
+        <v>27.59</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="12">
-        <v>1008</v>
+        <v>503029</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L68" s="10">
         <f>IFERROR(VLOOKUP($J68,'TAB1'!$A:$B,2,0),0)</f>
-        <v>55.96</v>
+        <v>64.31</v>
       </c>
       <c r="M68" s="10">
         <f>IFERROR(VLOOKUP($J68,'TAB2'!$A:$B,2,0),0)</f>
-        <v>54.88</v>
+        <v>63.07</v>
       </c>
       <c r="N68" s="10">
         <f>IFERROR(VLOOKUP($J68,'TAB3'!$A:$B,2,0),0)</f>
-        <v>53.81</v>
+        <v>61.83</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -4302,33 +4353,31 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="8">
-        <v>190</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>184</v>
-      </c>
+      <c r="J69" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="19"/>
       <c r="L69" s="10">
         <f>IFERROR(VLOOKUP($J69,'TAB1'!$A:$B,2,0),0)</f>
-        <v>33.51</v>
+        <v>0</v>
       </c>
       <c r="M69" s="10">
         <f>IFERROR(VLOOKUP($J69,'TAB2'!$A:$B,2,0),0)</f>
-        <v>32.86</v>
+        <v>0</v>
       </c>
       <c r="N69" s="10">
         <f>IFERROR(VLOOKUP($J69,'TAB3'!$A:$B,2,0),0)</f>
-        <v>32.22</v>
+        <v>0</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="10">
         <f>IFERROR(VLOOKUP($A70,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4345,21 +4394,23 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K70" s="20"/>
+      <c r="J70" s="8">
+        <v>166</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="L70" s="10">
         <f>IFERROR(VLOOKUP($J70,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>146.83000000000001</v>
       </c>
       <c r="M70" s="10">
         <f>IFERROR(VLOOKUP($J70,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>144.01</v>
       </c>
       <c r="N70" s="10">
         <f>IFERROR(VLOOKUP($J70,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>141.18</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -4392,29 +4443,29 @@
         <v>513</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L71" s="10">
         <f>IFERROR(VLOOKUP($J71,'TAB1'!$A:$B,2,0),0)</f>
-        <v>304.13</v>
+        <v>304.74</v>
       </c>
       <c r="M71" s="10">
         <f>IFERROR(VLOOKUP($J71,'TAB2'!$A:$B,2,0),0)</f>
-        <v>298.27999999999997</v>
+        <v>298.88</v>
       </c>
       <c r="N71" s="10">
         <f>IFERROR(VLOOKUP($J71,'TAB3'!$A:$B,2,0),0)</f>
-        <v>292.43</v>
+        <v>293.02</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
     </row>
     <row r="72" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="10">
         <f>IFERROR(VLOOKUP($A72,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4439,15 +4490,15 @@
       </c>
       <c r="L72" s="10">
         <f>IFERROR(VLOOKUP($J72,'TAB1'!$A:$B,2,0),0)</f>
-        <v>52.76</v>
+        <v>55.36</v>
       </c>
       <c r="M72" s="10">
         <f>IFERROR(VLOOKUP($J72,'TAB2'!$A:$B,2,0),0)</f>
-        <v>51.74</v>
+        <v>54.3</v>
       </c>
       <c r="N72" s="10">
         <f>IFERROR(VLOOKUP($J72,'TAB3'!$A:$B,2,0),0)</f>
-        <v>50.73</v>
+        <v>53.23</v>
       </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -4462,15 +4513,15 @@
       </c>
       <c r="C73" s="10">
         <f>IFERROR(VLOOKUP($A73,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.25</v>
+        <v>13.57</v>
       </c>
       <c r="D73" s="10">
         <f>IFERROR(VLOOKUP($A73,'TAB2'!$A:$B,2,0),0)</f>
-        <v>12.99</v>
+        <v>13.31</v>
       </c>
       <c r="E73" s="10">
         <f>IFERROR(VLOOKUP($A73,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.74</v>
+        <v>13.05</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
@@ -4484,15 +4535,15 @@
       </c>
       <c r="L73" s="10">
         <f>IFERROR(VLOOKUP($J73,'TAB1'!$A:$B,2,0),0)</f>
-        <v>160.01</v>
+        <v>160.41</v>
       </c>
       <c r="M73" s="10">
         <f>IFERROR(VLOOKUP($J73,'TAB2'!$A:$B,2,0),0)</f>
-        <v>156.93</v>
+        <v>157.33000000000001</v>
       </c>
       <c r="N73" s="10">
         <f>IFERROR(VLOOKUP($J73,'TAB3'!$A:$B,2,0),0)</f>
-        <v>153.85</v>
+        <v>154.24</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -4507,15 +4558,15 @@
       </c>
       <c r="C74" s="10">
         <f>IFERROR(VLOOKUP($A74,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.26</v>
+        <v>13.58</v>
       </c>
       <c r="D74" s="10">
         <f>IFERROR(VLOOKUP($A74,'TAB2'!$A:$B,2,0),0)</f>
-        <v>13.01</v>
+        <v>13.32</v>
       </c>
       <c r="E74" s="10">
         <f>IFERROR(VLOOKUP($A74,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.75</v>
+        <v>13.06</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -4529,15 +4580,15 @@
       </c>
       <c r="L74" s="10">
         <f>IFERROR(VLOOKUP($J74,'TAB1'!$A:$B,2,0),0)</f>
-        <v>138.62</v>
+        <v>153.49</v>
       </c>
       <c r="M74" s="10">
         <f>IFERROR(VLOOKUP($J74,'TAB2'!$A:$B,2,0),0)</f>
-        <v>135.96</v>
+        <v>150.54</v>
       </c>
       <c r="N74" s="10">
         <f>IFERROR(VLOOKUP($J74,'TAB3'!$A:$B,2,0),0)</f>
-        <v>133.29</v>
+        <v>147.59</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -4552,15 +4603,15 @@
       </c>
       <c r="C75" s="10">
         <f>IFERROR(VLOOKUP($A75,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.26</v>
+        <v>13.58</v>
       </c>
       <c r="D75" s="10">
         <f>IFERROR(VLOOKUP($A75,'TAB2'!$A:$B,2,0),0)</f>
-        <v>13.01</v>
+        <v>13.32</v>
       </c>
       <c r="E75" s="10">
         <f>IFERROR(VLOOKUP($A75,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.75</v>
+        <v>13.06</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -4574,15 +4625,15 @@
       </c>
       <c r="L75" s="10">
         <f>IFERROR(VLOOKUP($J75,'TAB1'!$A:$B,2,0),0)</f>
-        <v>241.03</v>
+        <v>241.55</v>
       </c>
       <c r="M75" s="10">
         <f>IFERROR(VLOOKUP($J75,'TAB2'!$A:$B,2,0),0)</f>
-        <v>236.39</v>
+        <v>236.91</v>
       </c>
       <c r="N75" s="10">
         <f>IFERROR(VLOOKUP($J75,'TAB3'!$A:$B,2,0),0)</f>
-        <v>231.76</v>
+        <v>232.26</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -4597,15 +4648,15 @@
       </c>
       <c r="C76" s="10">
         <f>IFERROR(VLOOKUP($A76,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.26</v>
+        <v>13.58</v>
       </c>
       <c r="D76" s="10">
         <f>IFERROR(VLOOKUP($A76,'TAB2'!$A:$B,2,0),0)</f>
-        <v>13.01</v>
+        <v>13.32</v>
       </c>
       <c r="E76" s="10">
         <f>IFERROR(VLOOKUP($A76,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.75</v>
+        <v>13.06</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -4619,15 +4670,15 @@
       </c>
       <c r="L76" s="10">
         <f>IFERROR(VLOOKUP($J76,'TAB1'!$A:$B,2,0),0)</f>
-        <v>224.25</v>
+        <v>224.77</v>
       </c>
       <c r="M76" s="10">
         <f>IFERROR(VLOOKUP($J76,'TAB2'!$A:$B,2,0),0)</f>
-        <v>219.94</v>
+        <v>220.45</v>
       </c>
       <c r="N76" s="10">
         <f>IFERROR(VLOOKUP($J76,'TAB3'!$A:$B,2,0),0)</f>
-        <v>215.62</v>
+        <v>216.13</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -4642,15 +4693,15 @@
       </c>
       <c r="C77" s="10">
         <f>IFERROR(VLOOKUP($A77,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.28</v>
+        <v>13.59</v>
       </c>
       <c r="D77" s="10">
         <f>IFERROR(VLOOKUP($A77,'TAB2'!$A:$B,2,0),0)</f>
-        <v>13.02</v>
+        <v>13.33</v>
       </c>
       <c r="E77" s="10">
         <f>IFERROR(VLOOKUP($A77,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.77</v>
+        <v>13.07</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -4664,15 +4715,15 @@
       </c>
       <c r="L77" s="10">
         <f>IFERROR(VLOOKUP($J77,'TAB1'!$A:$B,2,0),0)</f>
-        <v>519.45000000000005</v>
+        <v>520.05999999999995</v>
       </c>
       <c r="M77" s="10">
         <f>IFERROR(VLOOKUP($J77,'TAB2'!$A:$B,2,0),0)</f>
-        <v>509.46</v>
+        <v>510.06</v>
       </c>
       <c r="N77" s="10">
         <f>IFERROR(VLOOKUP($J77,'TAB3'!$A:$B,2,0),0)</f>
-        <v>499.47</v>
+        <v>500.06</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -4687,15 +4738,15 @@
       </c>
       <c r="C78" s="10">
         <f>IFERROR(VLOOKUP($A78,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.2</v>
+        <v>13.87</v>
       </c>
       <c r="D78" s="10">
         <f>IFERROR(VLOOKUP($A78,'TAB2'!$A:$B,2,0),0)</f>
-        <v>12.95</v>
+        <v>13.6</v>
       </c>
       <c r="E78" s="10">
         <f>IFERROR(VLOOKUP($A78,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.69</v>
+        <v>13.33</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -4709,15 +4760,15 @@
       </c>
       <c r="L78" s="10">
         <f>IFERROR(VLOOKUP($J78,'TAB1'!$A:$B,2,0),0)</f>
-        <v>301.97000000000003</v>
+        <v>302.58</v>
       </c>
       <c r="M78" s="10">
         <f>IFERROR(VLOOKUP($J78,'TAB2'!$A:$B,2,0),0)</f>
-        <v>296.16000000000003</v>
+        <v>296.76</v>
       </c>
       <c r="N78" s="10">
         <f>IFERROR(VLOOKUP($J78,'TAB3'!$A:$B,2,0),0)</f>
-        <v>290.36</v>
+        <v>290.94</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4729,15 +4780,15 @@
       </c>
       <c r="C79" s="10">
         <f>IFERROR(VLOOKUP($A79,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.19</v>
+        <v>13.85</v>
       </c>
       <c r="D79" s="10">
         <f>IFERROR(VLOOKUP($A79,'TAB2'!$A:$B,2,0),0)</f>
-        <v>12.93</v>
+        <v>13.59</v>
       </c>
       <c r="E79" s="10">
         <f>IFERROR(VLOOKUP($A79,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.68</v>
+        <v>13.32</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -4751,15 +4802,15 @@
       </c>
       <c r="L79" s="10">
         <f>IFERROR(VLOOKUP($J79,'TAB1'!$A:$B,2,0),0)</f>
-        <v>380.06</v>
+        <v>380.67</v>
       </c>
       <c r="M79" s="10">
         <f>IFERROR(VLOOKUP($J79,'TAB2'!$A:$B,2,0),0)</f>
-        <v>372.75</v>
+        <v>373.35</v>
       </c>
       <c r="N79" s="10">
         <f>IFERROR(VLOOKUP($J79,'TAB3'!$A:$B,2,0),0)</f>
-        <v>365.44</v>
+        <v>366.03</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4771,15 +4822,15 @@
       </c>
       <c r="C80" s="10">
         <f>IFERROR(VLOOKUP($A80,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.18</v>
+        <v>13.84</v>
       </c>
       <c r="D80" s="10">
         <f>IFERROR(VLOOKUP($A80,'TAB2'!$A:$B,2,0),0)</f>
-        <v>12.92</v>
+        <v>13.58</v>
       </c>
       <c r="E80" s="10">
         <f>IFERROR(VLOOKUP($A80,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.67</v>
+        <v>13.31</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
@@ -4793,15 +4844,15 @@
       </c>
       <c r="L80" s="10">
         <f>IFERROR(VLOOKUP($J80,'TAB1'!$A:$B,2,0),0)</f>
-        <v>75.400000000000006</v>
+        <v>69.63</v>
       </c>
       <c r="M80" s="10">
         <f>IFERROR(VLOOKUP($J80,'TAB2'!$A:$B,2,0),0)</f>
-        <v>73.95</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="N80" s="10">
         <f>IFERROR(VLOOKUP($J80,'TAB3'!$A:$B,2,0),0)</f>
-        <v>72.5</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4813,15 +4864,15 @@
       </c>
       <c r="C81" s="10">
         <f>IFERROR(VLOOKUP($A81,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.19</v>
+        <v>13.85</v>
       </c>
       <c r="D81" s="10">
         <f>IFERROR(VLOOKUP($A81,'TAB2'!$A:$B,2,0),0)</f>
-        <v>12.93</v>
+        <v>13.59</v>
       </c>
       <c r="E81" s="10">
         <f>IFERROR(VLOOKUP($A81,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.68</v>
+        <v>13.32</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
@@ -4835,15 +4886,15 @@
       </c>
       <c r="L81" s="10">
         <f>IFERROR(VLOOKUP($J81,'TAB1'!$A:$B,2,0),0)</f>
-        <v>93.27</v>
+        <v>93.54</v>
       </c>
       <c r="M81" s="10">
         <f>IFERROR(VLOOKUP($J81,'TAB2'!$A:$B,2,0),0)</f>
-        <v>91.48</v>
+        <v>91.74</v>
       </c>
       <c r="N81" s="10">
         <f>IFERROR(VLOOKUP($J81,'TAB3'!$A:$B,2,0),0)</f>
-        <v>89.69</v>
+        <v>89.94</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4855,15 +4906,15 @@
       </c>
       <c r="C82" s="10">
         <f>IFERROR(VLOOKUP($A82,'TAB1'!$A:$B,2,0),0)</f>
-        <v>13.19</v>
+        <v>13.85</v>
       </c>
       <c r="D82" s="10">
         <f>IFERROR(VLOOKUP($A82,'TAB2'!$A:$B,2,0),0)</f>
-        <v>12.93</v>
+        <v>13.59</v>
       </c>
       <c r="E82" s="10">
         <f>IFERROR(VLOOKUP($A82,'TAB3'!$A:$B,2,0),0)</f>
-        <v>12.68</v>
+        <v>13.32</v>
       </c>
       <c r="J82" s="12">
         <v>43</v>
@@ -4873,15 +4924,15 @@
       </c>
       <c r="L82" s="10">
         <f>IFERROR(VLOOKUP($J82,'TAB1'!$A:$B,2,0),0)</f>
-        <v>69.5</v>
+        <v>69.760000000000005</v>
       </c>
       <c r="M82" s="10">
         <f>IFERROR(VLOOKUP($J82,'TAB2'!$A:$B,2,0),0)</f>
-        <v>68.16</v>
+        <v>68.42</v>
       </c>
       <c r="N82" s="10">
         <f>IFERROR(VLOOKUP($J82,'TAB3'!$A:$B,2,0),0)</f>
-        <v>66.819999999999993</v>
+        <v>67.08</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4911,22 +4962,22 @@
       </c>
       <c r="L83" s="10">
         <f>IFERROR(VLOOKUP($J83,'TAB1'!$A:$B,2,0),0)</f>
-        <v>78.5</v>
+        <v>94.22</v>
       </c>
       <c r="M83" s="10">
         <f>IFERROR(VLOOKUP($J83,'TAB2'!$A:$B,2,0),0)</f>
-        <v>76.989999999999995</v>
+        <v>92.41</v>
       </c>
       <c r="N83" s="10">
         <f>IFERROR(VLOOKUP($J83,'TAB3'!$A:$B,2,0),0)</f>
-        <v>75.48</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="18"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="10">
         <f>IFERROR(VLOOKUP($A84,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4951,15 +5002,15 @@
       </c>
       <c r="L84" s="10">
         <f>IFERROR(VLOOKUP($J84,'TAB1'!$A:$B,2,0),0)</f>
-        <v>149.99</v>
+        <v>183.18</v>
       </c>
       <c r="M84" s="10">
         <f>IFERROR(VLOOKUP($J84,'TAB2'!$A:$B,2,0),0)</f>
-        <v>147.11000000000001</v>
+        <v>179.66</v>
       </c>
       <c r="N84" s="10">
         <f>IFERROR(VLOOKUP($J84,'TAB3'!$A:$B,2,0),0)</f>
-        <v>144.22</v>
+        <v>176.14</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4971,15 +5022,15 @@
       </c>
       <c r="C85" s="10">
         <f>IFERROR(VLOOKUP($A85,'TAB1'!$A:$B,2,0),0)</f>
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="D85" s="10">
         <f>IFERROR(VLOOKUP($A85,'TAB2'!$A:$B,2,0),0)</f>
-        <v>25.11</v>
+        <v>25.21</v>
       </c>
       <c r="E85" s="10">
         <f>IFERROR(VLOOKUP($A85,'TAB3'!$A:$B,2,0),0)</f>
-        <v>24.61</v>
+        <v>24.72</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -4993,22 +5044,22 @@
       </c>
       <c r="L85" s="10">
         <f>IFERROR(VLOOKUP($J85,'TAB1'!$A:$B,2,0),0)</f>
-        <v>149.99</v>
+        <v>183.18</v>
       </c>
       <c r="M85" s="10">
         <f>IFERROR(VLOOKUP($J85,'TAB2'!$A:$B,2,0),0)</f>
-        <v>147.11000000000001</v>
+        <v>179.66</v>
       </c>
       <c r="N85" s="10">
         <f>IFERROR(VLOOKUP($J85,'TAB3'!$A:$B,2,0),0)</f>
-        <v>144.22</v>
+        <v>176.14</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="18"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="10">
         <f>IFERROR(VLOOKUP($A86,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5117,15 +5168,15 @@
       </c>
       <c r="L88" s="10">
         <f>IFERROR(VLOOKUP($J88,'TAB1'!$A:$B,2,0),0)</f>
-        <v>21.37</v>
+        <v>55.29</v>
       </c>
       <c r="M88" s="10">
         <f>IFERROR(VLOOKUP($J88,'TAB2'!$A:$B,2,0),0)</f>
-        <v>20.96</v>
+        <v>54.22</v>
       </c>
       <c r="N88" s="10">
         <f>IFERROR(VLOOKUP($J88,'TAB3'!$A:$B,2,0),0)</f>
-        <v>20.55</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5133,7 +5184,7 @@
         <v>502431</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C89" s="10">
         <f>IFERROR(VLOOKUP($A89,'TAB1'!$A:$B,2,0),0)</f>
@@ -5152,22 +5203,22 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="12">
-        <v>29</v>
+        <v>156375</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="L89" s="10">
         <f>IFERROR(VLOOKUP($J89,'TAB1'!$A:$B,2,0),0)</f>
-        <v>434.66</v>
+        <v>166.59</v>
       </c>
       <c r="M89" s="10">
         <f>IFERROR(VLOOKUP($J89,'TAB2'!$A:$B,2,0),0)</f>
-        <v>426.3</v>
+        <v>163.38999999999999</v>
       </c>
       <c r="N89" s="10">
         <f>IFERROR(VLOOKUP($J89,'TAB3'!$A:$B,2,0),0)</f>
-        <v>417.95</v>
+        <v>160.18</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5175,7 +5226,7 @@
         <v>170021</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" s="10">
         <f>IFERROR(VLOOKUP($A90,'TAB1'!$A:$B,2,0),0)</f>
@@ -5197,19 +5248,19 @@
         <v>515</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L90" s="10">
         <f>IFERROR(VLOOKUP($J90,'TAB1'!$A:$B,2,0),0)</f>
-        <v>301.97000000000003</v>
+        <v>302.58</v>
       </c>
       <c r="M90" s="10">
         <f>IFERROR(VLOOKUP($J90,'TAB2'!$A:$B,2,0),0)</f>
-        <v>296.16000000000003</v>
+        <v>296.76</v>
       </c>
       <c r="N90" s="10">
         <f>IFERROR(VLOOKUP($J90,'TAB3'!$A:$B,2,0),0)</f>
-        <v>290.36</v>
+        <v>290.94</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5217,7 +5268,7 @@
         <v>170022</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="10">
         <f>IFERROR(VLOOKUP($A91,'TAB1'!$A:$B,2,0),0)</f>
@@ -5239,7 +5290,7 @@
         <v>9000</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L91" s="10">
         <f>IFERROR(VLOOKUP($J91,'TAB1'!$A:$B,2,0),0)</f>
@@ -5259,19 +5310,19 @@
         <v>10101</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C92" s="10">
         <f>IFERROR(VLOOKUP($A92,'TAB1'!$A:$B,2,0),0)</f>
-        <v>48.36</v>
+        <v>49.11</v>
       </c>
       <c r="D92" s="10">
         <f>IFERROR(VLOOKUP($A92,'TAB2'!$A:$B,2,0),0)</f>
-        <v>47.43</v>
+        <v>48.16</v>
       </c>
       <c r="E92" s="10">
         <f>IFERROR(VLOOKUP($A92,'TAB3'!$A:$B,2,0),0)</f>
-        <v>46.5</v>
+        <v>47.22</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -5281,19 +5332,19 @@
         <v>71</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L92" s="10">
         <f>IFERROR(VLOOKUP($J92,'TAB1'!$A:$B,2,0),0)</f>
-        <v>128.85</v>
+        <v>129.25</v>
       </c>
       <c r="M92" s="10">
         <f>IFERROR(VLOOKUP($J92,'TAB2'!$A:$B,2,0),0)</f>
-        <v>126.37</v>
+        <v>126.76</v>
       </c>
       <c r="N92" s="10">
         <f>IFERROR(VLOOKUP($J92,'TAB3'!$A:$B,2,0),0)</f>
-        <v>123.89</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5301,19 +5352,19 @@
         <v>20101</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" s="10">
         <f>IFERROR(VLOOKUP($A93,'TAB1'!$A:$B,2,0),0)</f>
-        <v>48.36</v>
+        <v>49.11</v>
       </c>
       <c r="D93" s="10">
         <f>IFERROR(VLOOKUP($A93,'TAB2'!$A:$B,2,0),0)</f>
-        <v>47.43</v>
+        <v>48.16</v>
       </c>
       <c r="E93" s="10">
         <f>IFERROR(VLOOKUP($A93,'TAB3'!$A:$B,2,0),0)</f>
-        <v>46.5</v>
+        <v>47.22</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -5323,26 +5374,26 @@
         <v>65</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L93" s="10">
         <f>IFERROR(VLOOKUP($J93,'TAB1'!$A:$B,2,0),0)</f>
-        <v>128.85</v>
+        <v>129.25</v>
       </c>
       <c r="M93" s="10">
         <f>IFERROR(VLOOKUP($J93,'TAB2'!$A:$B,2,0),0)</f>
-        <v>126.37</v>
+        <v>126.76</v>
       </c>
       <c r="N93" s="10">
         <f>IFERROR(VLOOKUP($J93,'TAB3'!$A:$B,2,0),0)</f>
-        <v>123.89</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B94" s="17"/>
+      <c r="A94" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="22"/>
       <c r="C94" s="10">
         <f>IFERROR(VLOOKUP($A94,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5360,22 +5411,22 @@
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="8">
-        <v>166</v>
+        <v>503031</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L94" s="10">
         <f>IFERROR(VLOOKUP($J94,'TAB1'!$A:$B,2,0),0)</f>
-        <v>146.5</v>
+        <v>73.94</v>
       </c>
       <c r="M94" s="10">
         <f>IFERROR(VLOOKUP($J94,'TAB2'!$A:$B,2,0),0)</f>
-        <v>143.69</v>
+        <v>72.52</v>
       </c>
       <c r="N94" s="10">
         <f>IFERROR(VLOOKUP($J94,'TAB3'!$A:$B,2,0),0)</f>
-        <v>140.87</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5405,19 +5456,19 @@
         <v>503013</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L95" s="10">
         <f>IFERROR(VLOOKUP($J95,'TAB1'!$A:$B,2,0),0)</f>
-        <v>67.900000000000006</v>
+        <v>73.94</v>
       </c>
       <c r="M95" s="10">
         <f>IFERROR(VLOOKUP($J95,'TAB2'!$A:$B,2,0),0)</f>
-        <v>66.59</v>
+        <v>72.52</v>
       </c>
       <c r="N95" s="10">
         <f>IFERROR(VLOOKUP($J95,'TAB3'!$A:$B,2,0),0)</f>
-        <v>65.28</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5447,19 +5498,19 @@
         <v>503030</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L96" s="10">
         <f>IFERROR(VLOOKUP($J96,'TAB1'!$A:$B,2,0),0)</f>
-        <v>67.900000000000006</v>
+        <v>73.94</v>
       </c>
       <c r="M96" s="10">
         <f>IFERROR(VLOOKUP($J96,'TAB2'!$A:$B,2,0),0)</f>
-        <v>66.59</v>
+        <v>72.52</v>
       </c>
       <c r="N96" s="10">
         <f>IFERROR(VLOOKUP($J96,'TAB3'!$A:$B,2,0),0)</f>
-        <v>65.28</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5489,19 +5540,19 @@
         <v>503020</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L97" s="10">
         <f>IFERROR(VLOOKUP($J97,'TAB1'!$A:$B,2,0),0)</f>
-        <v>67.900000000000006</v>
+        <v>73.94</v>
       </c>
       <c r="M97" s="10">
         <f>IFERROR(VLOOKUP($J97,'TAB2'!$A:$B,2,0),0)</f>
-        <v>66.59</v>
+        <v>72.52</v>
       </c>
       <c r="N97" s="10">
         <f>IFERROR(VLOOKUP($J97,'TAB3'!$A:$B,2,0),0)</f>
-        <v>65.28</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5527,19 +5578,19 @@
         <v>503023</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L98" s="10">
         <f>IFERROR(VLOOKUP($J98,'TAB1'!$A:$B,2,0),0)</f>
-        <v>67.900000000000006</v>
+        <v>73.94</v>
       </c>
       <c r="M98" s="10">
         <f>IFERROR(VLOOKUP($J98,'TAB2'!$A:$B,2,0),0)</f>
-        <v>66.59</v>
+        <v>72.52</v>
       </c>
       <c r="N98" s="10">
         <f>IFERROR(VLOOKUP($J98,'TAB3'!$A:$B,2,0),0)</f>
-        <v>65.28</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5561,26 +5612,28 @@
         <f>IFERROR(VLOOKUP($A99,'TAB3'!$A:$B,2,0),0)</f>
         <v>43.26</v>
       </c>
-      <c r="J99" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K99" s="18"/>
+      <c r="J99" s="8">
+        <v>425974</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="L99" s="10">
         <f>IFERROR(VLOOKUP($J99,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>413.54</v>
       </c>
       <c r="M99" s="10">
         <f>IFERROR(VLOOKUP($J99,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>405.58</v>
       </c>
       <c r="N99" s="10">
         <f>IFERROR(VLOOKUP($J99,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>397.63</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="10">
         <f>IFERROR(VLOOKUP($A100,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5594,22 +5647,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="12">
-        <v>170046</v>
+        <v>427089</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="L100" s="10">
         <f>IFERROR(VLOOKUP($J100,'TAB1'!$A:$B,2,0),0)</f>
-        <v>67.7</v>
+        <v>208.94</v>
       </c>
       <c r="M100" s="10">
         <f>IFERROR(VLOOKUP($J100,'TAB2'!$A:$B,2,0),0)</f>
-        <v>66.400000000000006</v>
+        <v>204.92</v>
       </c>
       <c r="N100" s="10">
         <f>IFERROR(VLOOKUP($J100,'TAB3'!$A:$B,2,0),0)</f>
-        <v>65.099999999999994</v>
+        <v>200.9</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5617,7 +5670,7 @@
         <v>170071</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C101" s="10">
         <f>IFERROR(VLOOKUP($A101,'TAB1'!$A:$B,2,0),0)</f>
@@ -5632,22 +5685,22 @@
         <v>101.1</v>
       </c>
       <c r="J101" s="12">
-        <v>12201</v>
+        <v>428251</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="L101" s="10">
         <f>IFERROR(VLOOKUP($J101,'TAB1'!$A:$B,2,0),0)</f>
-        <v>77.53</v>
+        <v>253.1</v>
       </c>
       <c r="M101" s="10">
         <f>IFERROR(VLOOKUP($J101,'TAB2'!$A:$B,2,0),0)</f>
-        <v>76.040000000000006</v>
+        <v>248.23</v>
       </c>
       <c r="N101" s="10">
         <f>IFERROR(VLOOKUP($J101,'TAB3'!$A:$B,2,0),0)</f>
-        <v>74.55</v>
+        <v>243.36</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5670,27 +5723,29 @@
         <v>144.18</v>
       </c>
       <c r="J102" s="12">
-        <v>12301</v>
+        <v>425973</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L102" s="10">
         <f>IFERROR(VLOOKUP($J102,'TAB1'!$A:$B,2,0),0)</f>
-        <v>124.71</v>
+        <v>475.43</v>
       </c>
       <c r="M102" s="10">
         <f>IFERROR(VLOOKUP($J102,'TAB2'!$A:$B,2,0),0)</f>
-        <v>122.31</v>
+        <v>466.29</v>
       </c>
       <c r="N102" s="10">
         <f>IFERROR(VLOOKUP($J102,'TAB3'!$A:$B,2,0),0)</f>
-        <v>119.91</v>
+        <v>457.15</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="8"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="17"/>
       <c r="C103" s="10">
         <f>IFERROR(VLOOKUP($A103,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5703,63 +5758,233 @@
         <f>IFERROR(VLOOKUP($A103,'TAB3'!$A:$B,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J103" s="12">
-        <v>170072</v>
-      </c>
-      <c r="K103" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="J103" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K103" s="22"/>
       <c r="L103" s="10">
         <f>IFERROR(VLOOKUP($J103,'TAB1'!$A:$B,2,0),0)</f>
-        <v>55.07</v>
+        <v>0</v>
       </c>
       <c r="M103" s="10">
         <f>IFERROR(VLOOKUP($J103,'TAB2'!$A:$B,2,0),0)</f>
-        <v>54.01</v>
+        <v>0</v>
       </c>
       <c r="N103" s="10">
         <f>IFERROR(VLOOKUP($J103,'TAB3'!$A:$B,2,0),0)</f>
-        <v>52.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="12">
+        <v>170046</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="C104" s="10">
         <f>IFERROR(VLOOKUP($A104,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="D104" s="10">
         <f>IFERROR(VLOOKUP($A104,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E104" s="10">
         <f>IFERROR(VLOOKUP($A104,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="12"/>
-      <c r="K104" s="13"/>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J104" s="12">
+        <v>101010</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="L104" s="10">
         <f>IFERROR(VLOOKUP($J104,'TAB1'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>62.71</v>
       </c>
       <c r="M104" s="10">
         <f>IFERROR(VLOOKUP($J104,'TAB2'!$A:$B,2,0),0)</f>
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="N104" s="10">
         <f>IFERROR(VLOOKUP($J104,'TAB3'!$A:$B,2,0),0)</f>
-        <v>0</v>
-      </c>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="12">
+        <v>12201</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="10">
+        <f>IFERROR(VLOOKUP($A105,'TAB1'!$A:$B,2,0),0)</f>
+        <v>77.53</v>
+      </c>
+      <c r="D105" s="10">
+        <f>IFERROR(VLOOKUP($A105,'TAB2'!$A:$B,2,0),0)</f>
+        <v>76.040000000000006</v>
+      </c>
+      <c r="E105" s="10">
+        <f>IFERROR(VLOOKUP($A105,'TAB3'!$A:$B,2,0),0)</f>
+        <v>74.55</v>
+      </c>
+      <c r="J105" s="12">
+        <v>101020</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="L105" s="10">
+        <f>IFERROR(VLOOKUP($J105,'TAB1'!$A:$B,2,0),0)</f>
+        <v>62.4</v>
+      </c>
+      <c r="M105" s="10">
+        <f>IFERROR(VLOOKUP($J105,'TAB2'!$A:$B,2,0),0)</f>
+        <v>61.2</v>
+      </c>
+      <c r="N105" s="10">
+        <f>IFERROR(VLOOKUP($J105,'TAB3'!$A:$B,2,0),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="12">
+        <v>12301</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="10">
+        <f>IFERROR(VLOOKUP($A106,'TAB1'!$A:$B,2,0),0)</f>
+        <v>124.71</v>
+      </c>
+      <c r="D106" s="10">
+        <f>IFERROR(VLOOKUP($A106,'TAB2'!$A:$B,2,0),0)</f>
+        <v>122.31</v>
+      </c>
+      <c r="E106" s="10">
+        <f>IFERROR(VLOOKUP($A106,'TAB3'!$A:$B,2,0),0)</f>
+        <v>119.91</v>
+      </c>
+      <c r="J106" s="12">
+        <v>101030</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L106" s="10">
+        <f>IFERROR(VLOOKUP($J106,'TAB1'!$A:$B,2,0),0)</f>
+        <v>62.71</v>
+      </c>
+      <c r="M106" s="10">
+        <f>IFERROR(VLOOKUP($J106,'TAB2'!$A:$B,2,0),0)</f>
+        <v>61.5</v>
+      </c>
+      <c r="N106" s="10">
+        <f>IFERROR(VLOOKUP($J106,'TAB3'!$A:$B,2,0),0)</f>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="12">
+        <v>170072</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="10">
+        <f>IFERROR(VLOOKUP($A107,'TAB1'!$A:$B,2,0),0)</f>
+        <v>55.07</v>
+      </c>
+      <c r="D107" s="10">
+        <f>IFERROR(VLOOKUP($A107,'TAB2'!$A:$B,2,0),0)</f>
+        <v>54.01</v>
+      </c>
+      <c r="E107" s="10">
+        <f>IFERROR(VLOOKUP($A107,'TAB3'!$A:$B,2,0),0)</f>
+        <v>52.95</v>
+      </c>
+      <c r="J107" s="12">
+        <v>101040</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L107" s="10">
+        <f>IFERROR(VLOOKUP($J107,'TAB1'!$A:$B,2,0),0)</f>
+        <v>62.71</v>
+      </c>
+      <c r="M107" s="10">
+        <f>IFERROR(VLOOKUP($J107,'TAB2'!$A:$B,2,0),0)</f>
+        <v>61.5</v>
+      </c>
+      <c r="N107" s="10">
+        <f>IFERROR(VLOOKUP($J107,'TAB3'!$A:$B,2,0),0)</f>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10">
+        <f>IFERROR(VLOOKUP($A108,'TAB1'!$A:$B,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="10">
+        <f>IFERROR(VLOOKUP($A108,'TAB2'!$A:$B,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="10">
+        <f>IFERROR(VLOOKUP($A108,'TAB3'!$A:$B,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="12">
+        <v>101050</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L108" s="10">
+        <f>IFERROR(VLOOKUP($J108,'TAB1'!$A:$B,2,0),0)</f>
+        <v>62.71</v>
+      </c>
+      <c r="M108" s="10">
+        <f>IFERROR(VLOOKUP($J108,'TAB2'!$A:$B,2,0),0)</f>
+        <v>61.5</v>
+      </c>
+      <c r="N108" s="10">
+        <f>IFERROR(VLOOKUP($J108,'TAB3'!$A:$B,2,0),0)</f>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M109"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J64:K64"/>
+  <mergeCells count="26">
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A72:B72"/>
@@ -5767,18 +5992,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="A84:B84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5792,7 +6005,7 @@
   <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5856,7 +6069,7 @@
         <v>611</v>
       </c>
       <c r="B10">
-        <v>131.18</v>
+        <v>140.54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,7 +6077,7 @@
         <v>617</v>
       </c>
       <c r="B11">
-        <v>85.5</v>
+        <v>94.28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,7 +6085,7 @@
         <v>628</v>
       </c>
       <c r="B12">
-        <v>104.29</v>
+        <v>109.68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5880,383 +6093,383 @@
         <v>683</v>
       </c>
       <c r="B13">
-        <v>118.26</v>
+        <v>123.95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>900090</v>
+        <v>1010037</v>
       </c>
       <c r="B14">
-        <v>79.349999999999994</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>902411</v>
+        <v>1010056</v>
       </c>
       <c r="B15">
-        <v>83.62</v>
+        <v>115.98</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>903061</v>
+        <v>1010074</v>
       </c>
       <c r="B16">
-        <v>109.51</v>
+        <v>112.63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1010037</v>
+        <v>1010113</v>
       </c>
       <c r="B17">
-        <v>77.61</v>
+        <v>114.91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1010056</v>
+        <v>1010133</v>
       </c>
       <c r="B18">
-        <v>108.4</v>
+        <v>123.72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1010074</v>
+        <v>1010166</v>
       </c>
       <c r="B19">
-        <v>105.28</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1010113</v>
+        <v>1010176</v>
       </c>
       <c r="B20">
-        <v>114.32</v>
+        <v>118.61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1010133</v>
+        <v>1010182</v>
       </c>
       <c r="B21">
-        <v>115.63</v>
+        <v>124.95</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1010166</v>
+        <v>1010188</v>
       </c>
       <c r="B22">
-        <v>85.95</v>
+        <v>123.53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1010176</v>
+        <v>1050551</v>
       </c>
       <c r="B23">
-        <v>113.47</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1010182</v>
+        <v>618</v>
       </c>
       <c r="B24">
-        <v>119.47</v>
+        <v>72.819999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1010188</v>
+        <v>619</v>
       </c>
       <c r="B25">
-        <v>118.13</v>
+        <v>67.27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1050551</v>
+        <v>1010125</v>
       </c>
       <c r="B26">
-        <v>52.76</v>
+        <v>61.26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>618</v>
+        <v>1010135</v>
       </c>
       <c r="B27">
-        <v>66.959999999999994</v>
+        <v>78.180000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>619</v>
+        <v>1010189</v>
       </c>
       <c r="B28">
-        <v>61.47</v>
+        <v>79.73</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>901133</v>
+        <v>657</v>
       </c>
       <c r="B29">
-        <v>52.66</v>
+        <v>45.43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>903171</v>
+        <v>1010172</v>
       </c>
       <c r="B30">
-        <v>68.95</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1010125</v>
+        <v>1010173</v>
       </c>
       <c r="B31">
-        <v>58.38</v>
+        <v>36.880000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1010135</v>
+        <v>1010174</v>
       </c>
       <c r="B32">
-        <v>77.69</v>
+        <v>38.340000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1010179</v>
+        <v>1010181</v>
       </c>
       <c r="B33">
-        <v>79.23</v>
+        <v>35.659999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1010189</v>
+        <v>1010190</v>
       </c>
       <c r="B34">
-        <v>79.23</v>
+        <v>42.68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>657</v>
+        <v>190</v>
       </c>
       <c r="B35">
-        <v>41.23</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>902391</v>
+        <v>694</v>
       </c>
       <c r="B36">
-        <v>46.77</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1010172</v>
+        <v>603</v>
       </c>
       <c r="B37">
-        <v>32.07</v>
+        <v>40.909999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1010173</v>
+        <v>1010183</v>
       </c>
       <c r="B38">
-        <v>35.229999999999997</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1010174</v>
+        <v>1010192</v>
       </c>
       <c r="B39">
-        <v>36.630000000000003</v>
+        <v>42.07</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1010181</v>
+        <v>652</v>
       </c>
       <c r="B40">
-        <v>35.549999999999997</v>
+        <v>33.479999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1010190</v>
+        <v>673</v>
       </c>
       <c r="B41">
-        <v>40.78</v>
+        <v>42.25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>190</v>
+        <v>678</v>
       </c>
       <c r="B42">
-        <v>33.51</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>694</v>
+        <v>1010038</v>
       </c>
       <c r="B43">
-        <v>109.31</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>603</v>
+        <v>1010103</v>
       </c>
       <c r="B44">
-        <v>39.53</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1010183</v>
+        <v>1010191</v>
       </c>
       <c r="B45">
-        <v>43.63</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1010192</v>
+        <v>1010193</v>
       </c>
       <c r="B46">
-        <v>41.99</v>
+        <v>34.79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="B47">
-        <v>30.66</v>
+        <v>44.66</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="B48">
-        <v>38.979999999999997</v>
+        <v>63.06</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B49">
-        <v>36.229999999999997</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1010038</v>
+        <v>665</v>
       </c>
       <c r="B50">
-        <v>25.29</v>
+        <v>63.06</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1010103</v>
+        <v>681</v>
       </c>
       <c r="B51">
-        <v>31.59</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1010191</v>
+        <v>10101</v>
       </c>
       <c r="B52">
-        <v>32.81</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1010193</v>
+        <v>10317</v>
       </c>
       <c r="B53">
-        <v>33.26</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>621</v>
+        <v>10318</v>
       </c>
       <c r="B54">
-        <v>43.26</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>623</v>
+        <v>20101</v>
       </c>
       <c r="B55">
-        <v>64.28</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>629</v>
+        <v>170021</v>
       </c>
       <c r="B56">
-        <v>46.43</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>665</v>
+        <v>170022</v>
       </c>
       <c r="B57">
-        <v>64.28</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>681</v>
+        <v>170065</v>
       </c>
       <c r="B58">
-        <v>55.03</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10101</v>
+        <v>502431</v>
       </c>
       <c r="B59">
-        <v>48.36</v>
+        <v>51.98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10317</v>
+        <v>170069</v>
       </c>
       <c r="B60">
-        <v>53.85</v>
+        <v>149.94999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,410 +6516,410 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10318</v>
+        <v>170071</v>
       </c>
       <c r="B70">
-        <v>53.85</v>
+        <v>105.14</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20101</v>
+        <v>65</v>
       </c>
       <c r="B71">
-        <v>48.36</v>
+        <v>129.25</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>170021</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>49.73</v>
+        <v>129.25</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>170022</v>
+        <v>510</v>
       </c>
       <c r="B73">
-        <v>49.73</v>
+        <v>160.41</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>170065</v>
+        <v>503013</v>
       </c>
       <c r="B74">
-        <v>44.99</v>
+        <v>73.94</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>502431</v>
+        <v>503020</v>
       </c>
       <c r="B75">
-        <v>51.98</v>
+        <v>73.94</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>170069</v>
+        <v>503023</v>
       </c>
       <c r="B76">
-        <v>149.94999999999999</v>
+        <v>73.94</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>170071</v>
+        <v>503030</v>
       </c>
       <c r="B77">
-        <v>105.14</v>
+        <v>73.94</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>65</v>
+        <v>503031</v>
       </c>
       <c r="B78">
-        <v>128.85</v>
+        <v>73.94</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>71</v>
+        <v>1008</v>
       </c>
       <c r="B79">
-        <v>128.85</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>510</v>
+        <v>1010059</v>
       </c>
       <c r="B80">
-        <v>160.01</v>
+        <v>541.29999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>503013</v>
+        <v>121</v>
       </c>
       <c r="B81">
-        <v>67.900000000000006</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>503020</v>
+        <v>141</v>
       </c>
       <c r="B82">
-        <v>67.900000000000006</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>503023</v>
+        <v>151</v>
       </c>
       <c r="B83">
-        <v>67.900000000000006</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>503030</v>
+        <v>161</v>
       </c>
       <c r="B84">
-        <v>67.900000000000006</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1008</v>
+        <v>171</v>
       </c>
       <c r="B85">
-        <v>55.96</v>
+        <v>31.15</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1010059</v>
+        <v>1101</v>
       </c>
       <c r="B86">
-        <v>496.89</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>27.35</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>32.979999999999997</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>151</v>
+        <v>1818</v>
       </c>
       <c r="B89">
-        <v>32.979999999999997</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>161</v>
+        <v>1919</v>
       </c>
       <c r="B90">
-        <v>32.950000000000003</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>27.79</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1101</v>
+        <v>101010</v>
       </c>
       <c r="B92">
-        <v>32.950000000000003</v>
+        <v>62.71</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>903798</v>
+        <v>101020</v>
       </c>
       <c r="B93">
-        <v>27.25</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>903800</v>
+        <v>101030</v>
       </c>
       <c r="B94">
-        <v>27.15</v>
+        <v>62.71</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>903802</v>
+        <v>101040</v>
       </c>
       <c r="B95">
-        <v>27.19</v>
+        <v>62.71</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>88</v>
+        <v>101050</v>
       </c>
       <c r="B96">
-        <v>20.55</v>
+        <v>62.71</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B97">
-        <v>25.14</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1818</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <v>25.14</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1919</v>
+        <v>4341</v>
       </c>
       <c r="B99">
-        <v>25.11</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>22</v>
+        <v>4343</v>
       </c>
       <c r="B100">
-        <v>75.2</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>90</v>
+        <v>4344</v>
       </c>
       <c r="B101">
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>91</v>
+        <v>4376</v>
       </c>
       <c r="B102">
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4341</v>
+        <v>4378</v>
       </c>
       <c r="B103">
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4343</v>
+        <v>9803</v>
       </c>
       <c r="B104">
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>4344</v>
+        <v>9805</v>
       </c>
       <c r="B105">
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>4376</v>
+        <v>98066</v>
       </c>
       <c r="B106">
-        <v>20.22</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>4378</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>20.22</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>9803</v>
+        <v>123</v>
       </c>
       <c r="B108">
-        <v>20.22</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>9805</v>
+        <v>163</v>
       </c>
       <c r="B109">
-        <v>20.22</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>98066</v>
+        <v>173</v>
       </c>
       <c r="B110">
-        <v>20.22</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>107</v>
+        <v>1153</v>
       </c>
       <c r="B111">
-        <v>25.6</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B112">
-        <v>22.13</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>163</v>
+        <v>1313</v>
       </c>
       <c r="B113">
-        <v>22.13</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>173</v>
+        <v>1414</v>
       </c>
       <c r="B114">
-        <v>21.06</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>1153</v>
+        <v>1515</v>
       </c>
       <c r="B115">
-        <v>22.13</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>83</v>
+        <v>1616</v>
       </c>
       <c r="B116">
-        <v>23.46</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1313</v>
+        <v>1717</v>
       </c>
       <c r="B117">
-        <v>13.18</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>1414</v>
+        <v>2112</v>
       </c>
       <c r="B118">
-        <v>13.2</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>1515</v>
+        <v>4444</v>
       </c>
       <c r="B119">
-        <v>13.19</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1616</v>
+        <v>5555</v>
       </c>
       <c r="B120">
-        <v>13.19</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6753,322 +6966,322 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1717</v>
+        <v>6666</v>
       </c>
       <c r="B130">
-        <v>13.19</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>2112</v>
+        <v>7777</v>
       </c>
       <c r="B131">
-        <v>13.28</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>4444</v>
+        <v>1050003</v>
       </c>
       <c r="B132">
-        <v>13.25</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5555</v>
+        <v>1050023</v>
       </c>
       <c r="B133">
-        <v>13.26</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6666</v>
+        <v>1060101</v>
       </c>
       <c r="B134">
-        <v>13.26</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7777</v>
+        <v>1050002</v>
       </c>
       <c r="B135">
-        <v>13.26</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1050003</v>
+        <v>1050022</v>
       </c>
       <c r="B136">
-        <v>18.09</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1050023</v>
+        <v>1060051</v>
       </c>
       <c r="B137">
-        <v>18.91</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1060101</v>
+        <v>1060052</v>
       </c>
       <c r="B138">
-        <v>15.66</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>195374</v>
+        <v>191</v>
       </c>
       <c r="B139">
-        <v>17.68</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>50000005</v>
+        <v>503017</v>
       </c>
       <c r="B140">
-        <v>24.27</v>
+        <v>64.31</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>195349</v>
+        <v>503029</v>
       </c>
       <c r="B141">
-        <v>14.25</v>
+        <v>64.31</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1050002</v>
+        <v>1050222</v>
       </c>
       <c r="B142">
-        <v>19.47</v>
+        <v>43.87</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1050022</v>
+        <v>29</v>
       </c>
       <c r="B143">
-        <v>20.63</v>
+        <v>435.27</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1060051</v>
+        <v>333</v>
       </c>
       <c r="B144">
-        <v>14.83</v>
+        <v>380.67</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1060052</v>
+        <v>335</v>
       </c>
       <c r="B145">
-        <v>19.02</v>
+        <v>241.55</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>191</v>
+        <v>509</v>
       </c>
       <c r="B146">
-        <v>63.02</v>
+        <v>224.77</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>503017</v>
+        <v>512</v>
       </c>
       <c r="B147">
-        <v>56.06</v>
+        <v>302.58</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1050222</v>
+        <v>513</v>
       </c>
       <c r="B148">
-        <v>41.91</v>
+        <v>304.74</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="B149">
-        <v>434.66</v>
+        <v>302.58</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>333</v>
+        <v>977</v>
       </c>
       <c r="B150">
-        <v>380.06</v>
+        <v>520.05999999999995</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>335</v>
+        <v>9000</v>
       </c>
       <c r="B151">
-        <v>241.03</v>
+        <v>136.86000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>509</v>
+        <v>219333</v>
       </c>
       <c r="B152">
-        <v>224.25</v>
+        <v>153.49</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>512</v>
+        <v>425973</v>
       </c>
       <c r="B153">
-        <v>301.97000000000003</v>
+        <v>475.43</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>513</v>
+        <v>425974</v>
       </c>
       <c r="B154">
-        <v>304.13</v>
+        <v>413.54</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>515</v>
+        <v>427089</v>
       </c>
       <c r="B155">
-        <v>301.97000000000003</v>
+        <v>208.94</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>977</v>
+        <v>428251</v>
       </c>
       <c r="B156">
-        <v>519.45000000000005</v>
+        <v>253.1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>9000</v>
+        <v>501051</v>
       </c>
       <c r="B157">
-        <v>136.86000000000001</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>219333</v>
+        <v>501052</v>
       </c>
       <c r="B158">
-        <v>138.62</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>501051</v>
+        <v>501053</v>
       </c>
       <c r="B159">
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>501052</v>
+        <v>501054</v>
       </c>
       <c r="B160">
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>501053</v>
+        <v>501055</v>
       </c>
       <c r="B161">
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>501054</v>
+        <v>501076</v>
       </c>
       <c r="B162">
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>501055</v>
+        <v>501077</v>
       </c>
       <c r="B163">
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>501076</v>
+        <v>501078</v>
       </c>
       <c r="B164">
-        <v>51.72</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>501077</v>
+        <v>501079</v>
       </c>
       <c r="B165">
-        <v>51.72</v>
+        <v>69.59</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>501078</v>
+        <v>501083</v>
       </c>
       <c r="B166">
-        <v>51.72</v>
+        <v>69.59</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>501079</v>
+        <v>501086</v>
       </c>
       <c r="B167">
-        <v>54.45</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>501083</v>
+        <v>501088</v>
       </c>
       <c r="B168">
-        <v>54.45</v>
+        <v>69.59</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>501086</v>
+        <v>156375</v>
       </c>
       <c r="B169">
-        <v>51.72</v>
+        <v>166.59</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>75.400000000000006</v>
+        <v>69.63</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7297,7 @@
         <v>43</v>
       </c>
       <c r="B171">
-        <v>69.5</v>
+        <v>69.760000000000005</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7305,7 @@
         <v>166</v>
       </c>
       <c r="B172">
-        <v>146.5</v>
+        <v>146.83000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7313,7 @@
         <v>966</v>
       </c>
       <c r="B173">
-        <v>93.27</v>
+        <v>93.54</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7321,7 @@
         <v>5111</v>
       </c>
       <c r="B174">
-        <v>219.76</v>
+        <v>220.08</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -7302,7 +7515,7 @@
         <v>5010001</v>
       </c>
       <c r="B202">
-        <v>78.5</v>
+        <v>94.22</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -7310,7 +7523,7 @@
         <v>5010016</v>
       </c>
       <c r="B203">
-        <v>149.99</v>
+        <v>183.18</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7531,7 @@
         <v>5010018</v>
       </c>
       <c r="B204">
-        <v>149.99</v>
+        <v>183.18</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -7326,7 +7539,7 @@
         <v>5003</v>
       </c>
       <c r="B205">
-        <v>21.37</v>
+        <v>55.29</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -7350,7 +7563,7 @@
         <v>33</v>
       </c>
       <c r="B208">
-        <v>30.38</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7571,7 @@
         <v>35</v>
       </c>
       <c r="B209">
-        <v>30.41</v>
+        <v>31.94</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -7366,7 +7579,7 @@
         <v>36</v>
       </c>
       <c r="B210">
-        <v>30.41</v>
+        <v>31.94</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -7374,7 +7587,7 @@
         <v>37</v>
       </c>
       <c r="B211">
-        <v>30.41</v>
+        <v>31.94</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -7382,7 +7595,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>30.43</v>
+        <v>31.97</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -7390,7 +7603,7 @@
         <v>54</v>
       </c>
       <c r="B213">
-        <v>32.1</v>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -7398,7 +7611,7 @@
         <v>56</v>
       </c>
       <c r="B214">
-        <v>32.15</v>
+        <v>33.159999999999997</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -7406,7 +7619,7 @@
         <v>57</v>
       </c>
       <c r="B215">
-        <v>32.130000000000003</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -7414,7 +7627,7 @@
         <v>58</v>
       </c>
       <c r="B216">
-        <v>32.130000000000003</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -7422,7 +7635,7 @@
         <v>59</v>
       </c>
       <c r="B217">
-        <v>32.130000000000003</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -7451,10 +7664,10 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>9990043</v>
+        <v>1</v>
       </c>
       <c r="B221">
-        <v>16.95</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7466,10 +7679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7525,7 +7738,7 @@
         <v>611</v>
       </c>
       <c r="B10">
-        <v>128.66</v>
+        <v>137.83000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7533,7 +7746,7 @@
         <v>617</v>
       </c>
       <c r="B11">
-        <v>83.85</v>
+        <v>92.47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7541,7 +7754,7 @@
         <v>628</v>
       </c>
       <c r="B12">
-        <v>102.29</v>
+        <v>107.57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7549,383 +7762,383 @@
         <v>683</v>
       </c>
       <c r="B13">
-        <v>115.99</v>
+        <v>121.57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>900090</v>
+        <v>1010037</v>
       </c>
       <c r="B14">
-        <v>77.83</v>
+        <v>81.540000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>902411</v>
+        <v>1010056</v>
       </c>
       <c r="B15">
-        <v>82.01</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>903061</v>
+        <v>1010074</v>
       </c>
       <c r="B16">
-        <v>107.41</v>
+        <v>110.46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1010037</v>
+        <v>1010113</v>
       </c>
       <c r="B17">
-        <v>76.12</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1010056</v>
+        <v>1010133</v>
       </c>
       <c r="B18">
-        <v>106.32</v>
+        <v>121.35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1010074</v>
+        <v>1010166</v>
       </c>
       <c r="B19">
-        <v>103.26</v>
+        <v>90.03</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1010113</v>
+        <v>1010176</v>
       </c>
       <c r="B20">
-        <v>112.12</v>
+        <v>116.33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1010133</v>
+        <v>1010182</v>
       </c>
       <c r="B21">
-        <v>113.4</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1010166</v>
+        <v>1010188</v>
       </c>
       <c r="B22">
-        <v>84.3</v>
+        <v>121.16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1010176</v>
+        <v>1050551</v>
       </c>
       <c r="B23">
-        <v>111.29</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1010182</v>
+        <v>618</v>
       </c>
       <c r="B24">
-        <v>117.17</v>
+        <v>71.42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1010188</v>
+        <v>619</v>
       </c>
       <c r="B25">
-        <v>115.85</v>
+        <v>65.98</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1050551</v>
+        <v>1010125</v>
       </c>
       <c r="B26">
-        <v>51.74</v>
+        <v>60.08</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>618</v>
+        <v>1010135</v>
       </c>
       <c r="B27">
-        <v>65.680000000000007</v>
+        <v>76.680000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>619</v>
+        <v>1010189</v>
       </c>
       <c r="B28">
-        <v>60.29</v>
+        <v>78.19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>901133</v>
+        <v>657</v>
       </c>
       <c r="B29">
-        <v>51.64</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>903171</v>
+        <v>1010172</v>
       </c>
       <c r="B30">
-        <v>67.63</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1010125</v>
+        <v>1010173</v>
       </c>
       <c r="B31">
-        <v>57.25</v>
+        <v>36.17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1010135</v>
+        <v>1010174</v>
       </c>
       <c r="B32">
-        <v>76.19</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1010179</v>
+        <v>1010181</v>
       </c>
       <c r="B33">
-        <v>77.709999999999994</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1010189</v>
+        <v>1010190</v>
       </c>
       <c r="B34">
-        <v>77.709999999999994</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>657</v>
+        <v>190</v>
       </c>
       <c r="B35">
-        <v>40.44</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>902391</v>
+        <v>694</v>
       </c>
       <c r="B36">
-        <v>45.87</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1010172</v>
+        <v>603</v>
       </c>
       <c r="B37">
-        <v>31.46</v>
+        <v>40.119999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1010173</v>
+        <v>1010183</v>
       </c>
       <c r="B38">
-        <v>34.56</v>
+        <v>42.87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1010174</v>
+        <v>1010192</v>
       </c>
       <c r="B39">
-        <v>35.93</v>
+        <v>41.26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1010181</v>
+        <v>652</v>
       </c>
       <c r="B40">
-        <v>34.869999999999997</v>
+        <v>32.83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1010190</v>
+        <v>673</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>190</v>
+        <v>678</v>
       </c>
       <c r="B42">
-        <v>32.86</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>694</v>
+        <v>1010038</v>
       </c>
       <c r="B43">
-        <v>107.2</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>603</v>
+        <v>1010103</v>
       </c>
       <c r="B44">
-        <v>38.770000000000003</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1010183</v>
+        <v>1010191</v>
       </c>
       <c r="B45">
-        <v>42.79</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1010192</v>
+        <v>1010193</v>
       </c>
       <c r="B46">
-        <v>41.18</v>
+        <v>34.130000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="B47">
-        <v>30.07</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="B48">
-        <v>38.229999999999997</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B49">
-        <v>35.53</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1010038</v>
+        <v>665</v>
       </c>
       <c r="B50">
-        <v>24.8</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1010103</v>
+        <v>681</v>
       </c>
       <c r="B51">
-        <v>30.98</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1010191</v>
+        <v>10101</v>
       </c>
       <c r="B52">
-        <v>32.18</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1010193</v>
+        <v>10317</v>
       </c>
       <c r="B53">
-        <v>32.619999999999997</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>621</v>
+        <v>10318</v>
       </c>
       <c r="B54">
-        <v>42.43</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>623</v>
+        <v>20101</v>
       </c>
       <c r="B55">
-        <v>63.05</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>629</v>
+        <v>170021</v>
       </c>
       <c r="B56">
-        <v>45.54</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>665</v>
+        <v>170022</v>
       </c>
       <c r="B57">
-        <v>63.05</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>681</v>
+        <v>170065</v>
       </c>
       <c r="B58">
-        <v>53.97</v>
+        <v>44.13</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10101</v>
+        <v>502431</v>
       </c>
       <c r="B59">
-        <v>47.43</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10317</v>
+        <v>170069</v>
       </c>
       <c r="B60">
-        <v>52.82</v>
+        <v>147.06</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,410 +8185,410 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10318</v>
+        <v>170071</v>
       </c>
       <c r="B70">
-        <v>52.82</v>
+        <v>103.12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20101</v>
+        <v>65</v>
       </c>
       <c r="B71">
-        <v>47.43</v>
+        <v>126.76</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>170021</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>48.78</v>
+        <v>126.76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>170022</v>
+        <v>510</v>
       </c>
       <c r="B73">
-        <v>48.78</v>
+        <v>157.33000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>170065</v>
+        <v>503013</v>
       </c>
       <c r="B74">
-        <v>44.13</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>502431</v>
+        <v>503020</v>
       </c>
       <c r="B75">
-        <v>50.98</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>170069</v>
+        <v>503023</v>
       </c>
       <c r="B76">
-        <v>147.06</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>170071</v>
+        <v>503030</v>
       </c>
       <c r="B77">
-        <v>103.12</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>65</v>
+        <v>503031</v>
       </c>
       <c r="B78">
-        <v>126.37</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>71</v>
+        <v>1008</v>
       </c>
       <c r="B79">
-        <v>126.37</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>510</v>
+        <v>1010059</v>
       </c>
       <c r="B80">
-        <v>156.93</v>
+        <v>530.89</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>503013</v>
+        <v>121</v>
       </c>
       <c r="B81">
-        <v>66.59</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>503020</v>
+        <v>141</v>
       </c>
       <c r="B82">
-        <v>66.59</v>
+        <v>31.69</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>503023</v>
+        <v>151</v>
       </c>
       <c r="B83">
-        <v>66.59</v>
+        <v>31.69</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>503030</v>
+        <v>161</v>
       </c>
       <c r="B84">
-        <v>66.59</v>
+        <v>32.130000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1008</v>
+        <v>171</v>
       </c>
       <c r="B85">
-        <v>54.88</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1010059</v>
+        <v>1101</v>
       </c>
       <c r="B86">
-        <v>487.34</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>26.83</v>
+        <v>20.149999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>32.35</v>
+        <v>28.14</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>151</v>
+        <v>1818</v>
       </c>
       <c r="B89">
-        <v>32.35</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>161</v>
+        <v>1919</v>
       </c>
       <c r="B90">
-        <v>32.32</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>27.25</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1101</v>
+        <v>101010</v>
       </c>
       <c r="B92">
-        <v>32.32</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>903798</v>
+        <v>101020</v>
       </c>
       <c r="B93">
-        <v>26.72</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>903800</v>
+        <v>101030</v>
       </c>
       <c r="B94">
-        <v>26.63</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>903802</v>
+        <v>101040</v>
       </c>
       <c r="B95">
-        <v>26.66</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>88</v>
+        <v>101050</v>
       </c>
       <c r="B96">
-        <v>20.149999999999999</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B97">
-        <v>24.66</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1818</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <v>24.66</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1919</v>
+        <v>4341</v>
       </c>
       <c r="B99">
-        <v>24.63</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>22</v>
+        <v>4343</v>
       </c>
       <c r="B100">
-        <v>73.75</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>90</v>
+        <v>4344</v>
       </c>
       <c r="B101">
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>91</v>
+        <v>4376</v>
       </c>
       <c r="B102">
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4341</v>
+        <v>4378</v>
       </c>
       <c r="B103">
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4343</v>
+        <v>9803</v>
       </c>
       <c r="B104">
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4344</v>
+        <v>9805</v>
       </c>
       <c r="B105">
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4376</v>
+        <v>98066</v>
       </c>
       <c r="B106">
-        <v>19.84</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4378</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>19.84</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9803</v>
+        <v>123</v>
       </c>
       <c r="B108">
-        <v>19.84</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9805</v>
+        <v>163</v>
       </c>
       <c r="B109">
-        <v>19.84</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>98066</v>
+        <v>173</v>
       </c>
       <c r="B110">
-        <v>19.84</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>107</v>
+        <v>1153</v>
       </c>
       <c r="B111">
-        <v>25.11</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B112">
-        <v>21.7</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>163</v>
+        <v>1313</v>
       </c>
       <c r="B113">
-        <v>21.7</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>173</v>
+        <v>1414</v>
       </c>
       <c r="B114">
-        <v>20.66</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1153</v>
+        <v>1515</v>
       </c>
       <c r="B115">
-        <v>21.7</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>83</v>
+        <v>1616</v>
       </c>
       <c r="B116">
-        <v>23.01</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1313</v>
+        <v>1717</v>
       </c>
       <c r="B117">
-        <v>12.92</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1414</v>
+        <v>2112</v>
       </c>
       <c r="B118">
-        <v>12.95</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1515</v>
+        <v>4444</v>
       </c>
       <c r="B119">
-        <v>12.93</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1616</v>
+        <v>5555</v>
       </c>
       <c r="B120">
-        <v>12.93</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,322 +8635,322 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1717</v>
+        <v>6666</v>
       </c>
       <c r="B130">
-        <v>12.93</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2112</v>
+        <v>7777</v>
       </c>
       <c r="B131">
-        <v>13.02</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4444</v>
+        <v>1050003</v>
       </c>
       <c r="B132">
-        <v>12.99</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5555</v>
+        <v>1050023</v>
       </c>
       <c r="B133">
-        <v>13.01</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6666</v>
+        <v>1060101</v>
       </c>
       <c r="B134">
-        <v>13.01</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7777</v>
+        <v>1050002</v>
       </c>
       <c r="B135">
-        <v>13.01</v>
+        <v>19.87</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1050003</v>
+        <v>1050022</v>
       </c>
       <c r="B136">
-        <v>17.739999999999998</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1050023</v>
+        <v>1060051</v>
       </c>
       <c r="B137">
-        <v>18.55</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1060101</v>
+        <v>1060052</v>
       </c>
       <c r="B138">
-        <v>15.36</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>195374</v>
+        <v>191</v>
       </c>
       <c r="B139">
-        <v>17.34</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>50000005</v>
+        <v>503017</v>
       </c>
       <c r="B140">
-        <v>23.81</v>
+        <v>63.07</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>195349</v>
+        <v>503029</v>
       </c>
       <c r="B141">
-        <v>13.97</v>
+        <v>63.07</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1050002</v>
+        <v>1050222</v>
       </c>
       <c r="B142">
-        <v>19.100000000000001</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1050022</v>
+        <v>29</v>
       </c>
       <c r="B143">
-        <v>20.239999999999998</v>
+        <v>426.9</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1060051</v>
+        <v>333</v>
       </c>
       <c r="B144">
-        <v>14.54</v>
+        <v>373.35</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1060052</v>
+        <v>335</v>
       </c>
       <c r="B145">
-        <v>18.649999999999999</v>
+        <v>236.91</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>191</v>
+        <v>509</v>
       </c>
       <c r="B146">
-        <v>61.81</v>
+        <v>220.45</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>503017</v>
+        <v>512</v>
       </c>
       <c r="B147">
-        <v>54.98</v>
+        <v>296.76</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1050222</v>
+        <v>513</v>
       </c>
       <c r="B148">
-        <v>41.1</v>
+        <v>298.88</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="B149">
-        <v>426.3</v>
+        <v>296.76</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>333</v>
+        <v>977</v>
       </c>
       <c r="B150">
-        <v>372.75</v>
+        <v>510.06</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>335</v>
+        <v>9000</v>
       </c>
       <c r="B151">
-        <v>236.39</v>
+        <v>134.22999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>509</v>
+        <v>219333</v>
       </c>
       <c r="B152">
-        <v>219.94</v>
+        <v>150.54</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>512</v>
+        <v>425973</v>
       </c>
       <c r="B153">
-        <v>296.16000000000003</v>
+        <v>466.29</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>513</v>
+        <v>425974</v>
       </c>
       <c r="B154">
-        <v>298.27999999999997</v>
+        <v>405.58</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>515</v>
+        <v>427089</v>
       </c>
       <c r="B155">
-        <v>296.16000000000003</v>
+        <v>204.92</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>977</v>
+        <v>428251</v>
       </c>
       <c r="B156">
-        <v>509.46</v>
+        <v>248.23</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>9000</v>
+        <v>501051</v>
       </c>
       <c r="B157">
-        <v>134.22999999999999</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>219333</v>
+        <v>501052</v>
       </c>
       <c r="B158">
-        <v>135.96</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>501051</v>
+        <v>501053</v>
       </c>
       <c r="B159">
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>501052</v>
+        <v>501054</v>
       </c>
       <c r="B160">
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>501053</v>
+        <v>501055</v>
       </c>
       <c r="B161">
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>501054</v>
+        <v>501076</v>
       </c>
       <c r="B162">
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>501055</v>
+        <v>501077</v>
       </c>
       <c r="B163">
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>501076</v>
+        <v>501078</v>
       </c>
       <c r="B164">
-        <v>50.72</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>501077</v>
+        <v>501079</v>
       </c>
       <c r="B165">
-        <v>50.72</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>501078</v>
+        <v>501083</v>
       </c>
       <c r="B166">
-        <v>50.72</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>501079</v>
+        <v>501086</v>
       </c>
       <c r="B167">
-        <v>53.41</v>
+        <v>65.569999999999993</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>501083</v>
+        <v>501088</v>
       </c>
       <c r="B168">
-        <v>53.41</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>501086</v>
+        <v>156375</v>
       </c>
       <c r="B169">
-        <v>50.72</v>
+        <v>163.38999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -8745,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>73.95</v>
+        <v>68.290000000000006</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -8753,7 +8966,7 @@
         <v>43</v>
       </c>
       <c r="B171">
-        <v>68.16</v>
+        <v>68.42</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +8974,7 @@
         <v>166</v>
       </c>
       <c r="B172">
-        <v>143.69</v>
+        <v>144.01</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8982,7 @@
         <v>966</v>
       </c>
       <c r="B173">
-        <v>91.48</v>
+        <v>91.74</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -8777,7 +8990,7 @@
         <v>5111</v>
       </c>
       <c r="B174">
-        <v>215.53</v>
+        <v>215.85</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -8971,7 +9184,7 @@
         <v>5010001</v>
       </c>
       <c r="B202">
-        <v>76.989999999999995</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -8979,7 +9192,7 @@
         <v>5010016</v>
       </c>
       <c r="B203">
-        <v>147.11000000000001</v>
+        <v>179.66</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -8987,7 +9200,7 @@
         <v>5010018</v>
       </c>
       <c r="B204">
-        <v>147.11000000000001</v>
+        <v>179.66</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -8995,7 +9208,7 @@
         <v>5003</v>
       </c>
       <c r="B205">
-        <v>20.96</v>
+        <v>54.22</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -9019,7 +9232,7 @@
         <v>33</v>
       </c>
       <c r="B208">
-        <v>29.8</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -9027,7 +9240,7 @@
         <v>35</v>
       </c>
       <c r="B209">
-        <v>29.82</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -9035,7 +9248,7 @@
         <v>36</v>
       </c>
       <c r="B210">
-        <v>29.82</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -9043,7 +9256,7 @@
         <v>37</v>
       </c>
       <c r="B211">
-        <v>29.82</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -9051,7 +9264,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>29.85</v>
+        <v>31.35</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -9059,7 +9272,7 @@
         <v>54</v>
       </c>
       <c r="B213">
-        <v>31.48</v>
+        <v>32.479999999999997</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -9067,7 +9280,7 @@
         <v>56</v>
       </c>
       <c r="B214">
-        <v>31.53</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,7 +9288,7 @@
         <v>57</v>
       </c>
       <c r="B215">
-        <v>31.51</v>
+        <v>32.51</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -9083,7 +9296,7 @@
         <v>58</v>
       </c>
       <c r="B216">
-        <v>31.51</v>
+        <v>32.51</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -9091,7 +9304,7 @@
         <v>59</v>
       </c>
       <c r="B217">
-        <v>31.51</v>
+        <v>32.51</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9116,14 +9329,6 @@
       </c>
       <c r="B220">
         <v>209.76</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>9990043</v>
-      </c>
-      <c r="B221">
-        <v>16.63</v>
       </c>
     </row>
   </sheetData>
@@ -9134,10 +9339,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9193,7 +9398,7 @@
         <v>611</v>
       </c>
       <c r="B10">
-        <v>126.13</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9201,7 +9406,7 @@
         <v>617</v>
       </c>
       <c r="B11">
-        <v>82.21</v>
+        <v>90.65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9209,7 +9414,7 @@
         <v>628</v>
       </c>
       <c r="B12">
-        <v>100.28</v>
+        <v>105.46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9217,383 +9422,383 @@
         <v>683</v>
       </c>
       <c r="B13">
-        <v>113.71</v>
+        <v>119.18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>900090</v>
+        <v>1010037</v>
       </c>
       <c r="B14">
-        <v>76.3</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>902411</v>
+        <v>1010056</v>
       </c>
       <c r="B15">
-        <v>80.400000000000006</v>
+        <v>111.52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>903061</v>
+        <v>1010074</v>
       </c>
       <c r="B16">
-        <v>105.3</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1010037</v>
+        <v>1010113</v>
       </c>
       <c r="B17">
-        <v>74.63</v>
+        <v>110.49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1010056</v>
+        <v>1010133</v>
       </c>
       <c r="B18">
-        <v>104.24</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1010074</v>
+        <v>1010166</v>
       </c>
       <c r="B19">
-        <v>101.23</v>
+        <v>88.27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1010113</v>
+        <v>1010176</v>
       </c>
       <c r="B20">
-        <v>109.92</v>
+        <v>114.05</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1010133</v>
+        <v>1010182</v>
       </c>
       <c r="B21">
-        <v>111.18</v>
+        <v>120.14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1010166</v>
+        <v>1010188</v>
       </c>
       <c r="B22">
-        <v>82.65</v>
+        <v>118.78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1010176</v>
+        <v>1050551</v>
       </c>
       <c r="B23">
-        <v>109.1</v>
+        <v>53.23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1010182</v>
+        <v>618</v>
       </c>
       <c r="B24">
-        <v>114.88</v>
+        <v>70.02</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1010188</v>
+        <v>619</v>
       </c>
       <c r="B25">
-        <v>113.58</v>
+        <v>64.680000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1050551</v>
+        <v>1010125</v>
       </c>
       <c r="B26">
-        <v>50.73</v>
+        <v>58.91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>618</v>
+        <v>1010135</v>
       </c>
       <c r="B27">
-        <v>64.39</v>
+        <v>75.17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>619</v>
+        <v>1010189</v>
       </c>
       <c r="B28">
-        <v>59.1</v>
+        <v>76.66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>901133</v>
+        <v>657</v>
       </c>
       <c r="B29">
-        <v>50.63</v>
+        <v>43.69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>903171</v>
+        <v>1010172</v>
       </c>
       <c r="B30">
-        <v>66.3</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1010125</v>
+        <v>1010173</v>
       </c>
       <c r="B31">
-        <v>56.13</v>
+        <v>35.46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1010135</v>
+        <v>1010174</v>
       </c>
       <c r="B32">
-        <v>74.7</v>
+        <v>36.869999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1010179</v>
+        <v>1010181</v>
       </c>
       <c r="B33">
-        <v>76.180000000000007</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1010189</v>
+        <v>1010190</v>
       </c>
       <c r="B34">
-        <v>76.180000000000007</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>657</v>
+        <v>190</v>
       </c>
       <c r="B35">
-        <v>39.64</v>
+        <v>31.01</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>902391</v>
+        <v>694</v>
       </c>
       <c r="B36">
-        <v>44.97</v>
+        <v>96.73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1010172</v>
+        <v>603</v>
       </c>
       <c r="B37">
-        <v>30.84</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1010173</v>
+        <v>1010183</v>
       </c>
       <c r="B38">
-        <v>33.880000000000003</v>
+        <v>42.03</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1010174</v>
+        <v>1010192</v>
       </c>
       <c r="B39">
-        <v>35.22</v>
+        <v>40.450000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1010181</v>
+        <v>652</v>
       </c>
       <c r="B40">
-        <v>34.18</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1010190</v>
+        <v>673</v>
       </c>
       <c r="B41">
-        <v>39.21</v>
+        <v>40.630000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>190</v>
+        <v>678</v>
       </c>
       <c r="B42">
-        <v>32.22</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>694</v>
+        <v>1010038</v>
       </c>
       <c r="B43">
-        <v>105.1</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>603</v>
+        <v>1010103</v>
       </c>
       <c r="B44">
-        <v>38.01</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1010183</v>
+        <v>1010191</v>
       </c>
       <c r="B45">
-        <v>41.95</v>
+        <v>33.01</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1010192</v>
+        <v>1010193</v>
       </c>
       <c r="B46">
-        <v>40.380000000000003</v>
+        <v>33.46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="B47">
-        <v>29.48</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="B48">
-        <v>37.479999999999997</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B49">
-        <v>34.83</v>
+        <v>49.79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1010038</v>
+        <v>665</v>
       </c>
       <c r="B50">
-        <v>24.32</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1010103</v>
+        <v>681</v>
       </c>
       <c r="B51">
-        <v>30.37</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1010191</v>
+        <v>10101</v>
       </c>
       <c r="B52">
-        <v>31.55</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1010193</v>
+        <v>10317</v>
       </c>
       <c r="B53">
-        <v>31.98</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>621</v>
+        <v>10318</v>
       </c>
       <c r="B54">
-        <v>41.6</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>623</v>
+        <v>20101</v>
       </c>
       <c r="B55">
-        <v>61.81</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>629</v>
+        <v>170021</v>
       </c>
       <c r="B56">
-        <v>44.65</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>665</v>
+        <v>170022</v>
       </c>
       <c r="B57">
-        <v>61.81</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>681</v>
+        <v>170065</v>
       </c>
       <c r="B58">
-        <v>52.91</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10101</v>
+        <v>502431</v>
       </c>
       <c r="B59">
-        <v>46.5</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10317</v>
+        <v>170069</v>
       </c>
       <c r="B60">
-        <v>51.78</v>
+        <v>144.18</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -9640,410 +9845,410 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10318</v>
+        <v>170071</v>
       </c>
       <c r="B70">
-        <v>51.78</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20101</v>
+        <v>65</v>
       </c>
       <c r="B71">
-        <v>46.5</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>170021</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>47.82</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>170022</v>
+        <v>510</v>
       </c>
       <c r="B73">
-        <v>47.82</v>
+        <v>154.24</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>170065</v>
+        <v>503013</v>
       </c>
       <c r="B74">
-        <v>43.26</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>502431</v>
+        <v>503020</v>
       </c>
       <c r="B75">
-        <v>49.98</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>170069</v>
+        <v>503023</v>
       </c>
       <c r="B76">
-        <v>144.18</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>170071</v>
+        <v>503030</v>
       </c>
       <c r="B77">
-        <v>101.1</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>65</v>
+        <v>503031</v>
       </c>
       <c r="B78">
-        <v>123.89</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>71</v>
+        <v>1008</v>
       </c>
       <c r="B79">
-        <v>123.89</v>
+        <v>53.81</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>510</v>
+        <v>1010059</v>
       </c>
       <c r="B80">
-        <v>153.85</v>
+        <v>520.48</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>503013</v>
+        <v>121</v>
       </c>
       <c r="B81">
-        <v>65.28</v>
+        <v>30.16</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>503020</v>
+        <v>141</v>
       </c>
       <c r="B82">
-        <v>65.28</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>503023</v>
+        <v>151</v>
       </c>
       <c r="B83">
-        <v>65.28</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>503030</v>
+        <v>161</v>
       </c>
       <c r="B84">
-        <v>65.28</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1008</v>
+        <v>171</v>
       </c>
       <c r="B85">
-        <v>53.81</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1010059</v>
+        <v>1101</v>
       </c>
       <c r="B86">
-        <v>477.78</v>
+        <v>32.520000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>26.3</v>
+        <v>19.760000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>31.72</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>151</v>
+        <v>1818</v>
       </c>
       <c r="B89">
-        <v>31.72</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>161</v>
+        <v>1919</v>
       </c>
       <c r="B90">
-        <v>31.68</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>26.72</v>
+        <v>72.31</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1101</v>
+        <v>101010</v>
       </c>
       <c r="B92">
-        <v>31.68</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>903798</v>
+        <v>101020</v>
       </c>
       <c r="B93">
-        <v>26.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>903800</v>
+        <v>101030</v>
       </c>
       <c r="B94">
-        <v>26.11</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>903802</v>
+        <v>101040</v>
       </c>
       <c r="B95">
-        <v>26.14</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>88</v>
+        <v>101050</v>
       </c>
       <c r="B96">
-        <v>19.760000000000002</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B97">
-        <v>24.18</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1818</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <v>24.17</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1919</v>
+        <v>4341</v>
       </c>
       <c r="B99">
-        <v>24.14</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>22</v>
+        <v>4343</v>
       </c>
       <c r="B100">
-        <v>72.31</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>90</v>
+        <v>4344</v>
       </c>
       <c r="B101">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>91</v>
+        <v>4376</v>
       </c>
       <c r="B102">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4341</v>
+        <v>4378</v>
       </c>
       <c r="B103">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4343</v>
+        <v>9803</v>
       </c>
       <c r="B104">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4344</v>
+        <v>9805</v>
       </c>
       <c r="B105">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4376</v>
+        <v>98066</v>
       </c>
       <c r="B106">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4378</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>19.45</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9803</v>
+        <v>123</v>
       </c>
       <c r="B108">
-        <v>19.45</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9805</v>
+        <v>163</v>
       </c>
       <c r="B109">
-        <v>19.45</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>98066</v>
+        <v>173</v>
       </c>
       <c r="B110">
-        <v>19.45</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>107</v>
+        <v>1153</v>
       </c>
       <c r="B111">
-        <v>24.61</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B112">
-        <v>21.27</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>163</v>
+        <v>1313</v>
       </c>
       <c r="B113">
-        <v>21.27</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>173</v>
+        <v>1414</v>
       </c>
       <c r="B114">
-        <v>20.25</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1153</v>
+        <v>1515</v>
       </c>
       <c r="B115">
-        <v>21.27</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>83</v>
+        <v>1616</v>
       </c>
       <c r="B116">
-        <v>22.55</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1313</v>
+        <v>1717</v>
       </c>
       <c r="B117">
-        <v>12.67</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1414</v>
+        <v>2112</v>
       </c>
       <c r="B118">
-        <v>12.69</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1515</v>
+        <v>4444</v>
       </c>
       <c r="B119">
-        <v>12.68</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1616</v>
+        <v>5555</v>
       </c>
       <c r="B120">
-        <v>12.68</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -10090,322 +10295,322 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1717</v>
+        <v>6666</v>
       </c>
       <c r="B130">
-        <v>12.68</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2112</v>
+        <v>7777</v>
       </c>
       <c r="B131">
-        <v>12.77</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4444</v>
+        <v>1050003</v>
       </c>
       <c r="B132">
-        <v>12.74</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5555</v>
+        <v>1050023</v>
       </c>
       <c r="B133">
-        <v>12.75</v>
+        <v>19.02</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6666</v>
+        <v>1060101</v>
       </c>
       <c r="B134">
-        <v>12.75</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7777</v>
+        <v>1050002</v>
       </c>
       <c r="B135">
-        <v>12.75</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1050003</v>
+        <v>1050022</v>
       </c>
       <c r="B136">
-        <v>17.39</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1050023</v>
+        <v>1060051</v>
       </c>
       <c r="B137">
-        <v>18.190000000000001</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1060101</v>
+        <v>1060052</v>
       </c>
       <c r="B138">
-        <v>15.05</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>195374</v>
+        <v>191</v>
       </c>
       <c r="B139">
-        <v>17</v>
+        <v>50.94</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>50000005</v>
+        <v>503017</v>
       </c>
       <c r="B140">
-        <v>23.34</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>195349</v>
+        <v>503029</v>
       </c>
       <c r="B141">
-        <v>13.7</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1050002</v>
+        <v>1050222</v>
       </c>
       <c r="B142">
-        <v>18.72</v>
+        <v>42.18</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1050022</v>
+        <v>29</v>
       </c>
       <c r="B143">
-        <v>19.84</v>
+        <v>418.53</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1060051</v>
+        <v>333</v>
       </c>
       <c r="B144">
-        <v>14.26</v>
+        <v>366.03</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1060052</v>
+        <v>335</v>
       </c>
       <c r="B145">
-        <v>18.29</v>
+        <v>232.26</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>191</v>
+        <v>509</v>
       </c>
       <c r="B146">
-        <v>60.6</v>
+        <v>216.13</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>503017</v>
+        <v>512</v>
       </c>
       <c r="B147">
-        <v>53.9</v>
+        <v>290.94</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1050222</v>
+        <v>513</v>
       </c>
       <c r="B148">
-        <v>40.29</v>
+        <v>293.02</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="B149">
-        <v>417.95</v>
+        <v>290.94</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>333</v>
+        <v>977</v>
       </c>
       <c r="B150">
-        <v>365.44</v>
+        <v>500.06</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>335</v>
+        <v>9000</v>
       </c>
       <c r="B151">
-        <v>231.76</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>509</v>
+        <v>219333</v>
       </c>
       <c r="B152">
-        <v>215.62</v>
+        <v>147.59</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>512</v>
+        <v>425973</v>
       </c>
       <c r="B153">
-        <v>290.36</v>
+        <v>457.15</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>513</v>
+        <v>425974</v>
       </c>
       <c r="B154">
-        <v>292.43</v>
+        <v>397.63</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>515</v>
+        <v>427089</v>
       </c>
       <c r="B155">
-        <v>290.36</v>
+        <v>200.9</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>977</v>
+        <v>428251</v>
       </c>
       <c r="B156">
-        <v>499.47</v>
+        <v>243.36</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>9000</v>
+        <v>501051</v>
       </c>
       <c r="B157">
-        <v>131.6</v>
+        <v>64.28</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>219333</v>
+        <v>501052</v>
       </c>
       <c r="B158">
-        <v>133.29</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>501051</v>
+        <v>501053</v>
       </c>
       <c r="B159">
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>501052</v>
+        <v>501054</v>
       </c>
       <c r="B160">
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>501053</v>
+        <v>501055</v>
       </c>
       <c r="B161">
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>501054</v>
+        <v>501076</v>
       </c>
       <c r="B162">
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>501055</v>
+        <v>501077</v>
       </c>
       <c r="B163">
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>501076</v>
+        <v>501078</v>
       </c>
       <c r="B164">
-        <v>49.73</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>501077</v>
+        <v>501079</v>
       </c>
       <c r="B165">
-        <v>49.73</v>
+        <v>66.92</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>501078</v>
+        <v>501083</v>
       </c>
       <c r="B166">
-        <v>49.73</v>
+        <v>66.92</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>501079</v>
+        <v>501086</v>
       </c>
       <c r="B167">
-        <v>52.36</v>
+        <v>64.28</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>501083</v>
+        <v>501088</v>
       </c>
       <c r="B168">
-        <v>52.36</v>
+        <v>66.92</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>501086</v>
+        <v>156375</v>
       </c>
       <c r="B169">
-        <v>49.73</v>
+        <v>160.18</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -10413,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>72.5</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -10421,7 +10626,7 @@
         <v>43</v>
       </c>
       <c r="B171">
-        <v>66.819999999999993</v>
+        <v>67.08</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -10429,7 +10634,7 @@
         <v>166</v>
       </c>
       <c r="B172">
-        <v>140.87</v>
+        <v>141.18</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -10437,7 +10642,7 @@
         <v>966</v>
       </c>
       <c r="B173">
-        <v>89.69</v>
+        <v>89.94</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -10445,7 +10650,7 @@
         <v>5111</v>
       </c>
       <c r="B174">
-        <v>211.31</v>
+        <v>211.62</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -10639,7 +10844,7 @@
         <v>5010001</v>
       </c>
       <c r="B202">
-        <v>75.48</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -10647,7 +10852,7 @@
         <v>5010016</v>
       </c>
       <c r="B203">
-        <v>144.22</v>
+        <v>176.14</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -10655,7 +10860,7 @@
         <v>5010018</v>
       </c>
       <c r="B204">
-        <v>144.22</v>
+        <v>176.14</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -10663,7 +10868,7 @@
         <v>5003</v>
       </c>
       <c r="B205">
-        <v>20.55</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -10687,7 +10892,7 @@
         <v>33</v>
       </c>
       <c r="B208">
-        <v>29.21</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -10695,7 +10900,7 @@
         <v>35</v>
       </c>
       <c r="B209">
-        <v>29.24</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -10703,7 +10908,7 @@
         <v>36</v>
       </c>
       <c r="B210">
-        <v>29.24</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -10711,7 +10916,7 @@
         <v>37</v>
       </c>
       <c r="B211">
-        <v>29.24</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -10719,7 +10924,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>29.26</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -10727,7 +10932,7 @@
         <v>54</v>
       </c>
       <c r="B213">
-        <v>30.87</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -10735,7 +10940,7 @@
         <v>56</v>
       </c>
       <c r="B214">
-        <v>30.91</v>
+        <v>31.89</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -10743,7 +10948,7 @@
         <v>57</v>
       </c>
       <c r="B215">
-        <v>30.89</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -10751,7 +10956,7 @@
         <v>58</v>
       </c>
       <c r="B216">
-        <v>30.89</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -10759,7 +10964,7 @@
         <v>59</v>
       </c>
       <c r="B217">
-        <v>30.89</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -10784,14 +10989,6 @@
       </c>
       <c r="B220">
         <v>205.65</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>9990043</v>
-      </c>
-      <c r="B221">
-        <v>16.3</v>
       </c>
     </row>
   </sheetData>

--- a/tabela de preços 2021.xlsx
+++ b/tabela de preços 2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\PycharmProjects\pythonTrabalho1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C3072-896A-4492-B734-65F4A0F901C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABELA DE PREÇOS" sheetId="2" r:id="rId1"/>
@@ -24,18 +25,24 @@
     <definedName name="TAB1_" localSheetId="2">'TAB2'!$A$1:$B$220</definedName>
     <definedName name="TAB1_" localSheetId="3">'TAB3'!$A$1:$B$220</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="TAB1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="TAB1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="N:\TAB 1.TXT" delimited="0" decimal="," thousands=".">
       <textFields count="5">
         <textField type="skip"/>
@@ -46,7 +53,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="TAB11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="TAB11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="N:\TAB 2.TXT" delimited="0" decimal="," thousands=".">
       <textFields count="5">
         <textField type="skip"/>
@@ -57,7 +64,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="TAB12" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="TAB12" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="N:\TAB 3.TXT" delimited="0" decimal="," thousands=".">
       <textFields count="5">
         <textField type="skip"/>
@@ -734,7 +741,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -950,7 +957,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,20 +966,20 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,15 +995,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TAB1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TAB1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TAB1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TAB1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TAB1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TAB1" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,14 +1302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFC109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="30" zoomScaleNormal="40" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B58" zoomScale="30" zoomScaleNormal="40" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1323,10 +1330,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1941,10 +1948,10 @@
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="10">
         <f>IFERROR(VLOOKUP($A15,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -2209,10 +2216,10 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="10">
         <f>IFERROR(VLOOKUP($A21,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -2608,10 +2615,10 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10">
         <f>IFERROR(VLOOKUP($A30,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -2964,10 +2971,10 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="10">
         <f>IFERROR(VLOOKUP($A38,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -3228,10 +3235,10 @@
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="10">
         <f>IFERROR(VLOOKUP($A44,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -3494,10 +3501,10 @@
       <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="10">
         <f>IFERROR(VLOOKUP($A50,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -3623,10 +3630,10 @@
       <c r="Q52" s="4"/>
     </row>
     <row r="53" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="10">
         <f>IFERROR(VLOOKUP($A53,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4112,10 +4119,10 @@
       <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="10">
         <f>IFERROR(VLOOKUP($A64,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4374,10 +4381,10 @@
       <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="17"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="10">
         <f>IFERROR(VLOOKUP($A70,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4462,10 +4469,10 @@
       <c r="Q71" s="4"/>
     </row>
     <row r="72" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="17"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="10">
         <f>IFERROR(VLOOKUP($A72,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -4974,10 +4981,10 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="17"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="10">
         <f>IFERROR(VLOOKUP($A84,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5056,10 +5063,10 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="17"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="10">
         <f>IFERROR(VLOOKUP($A86,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5390,10 +5397,10 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="22"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="10">
         <f>IFERROR(VLOOKUP($A94,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5632,8 +5639,8 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="10">
         <f>IFERROR(VLOOKUP($A100,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5742,10 +5749,10 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="17"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="10">
         <f>IFERROR(VLOOKUP($A103,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5758,10 +5765,10 @@
         <f>IFERROR(VLOOKUP($A103,'TAB3'!$A:$B,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J103" s="22" t="s">
+      <c r="J103" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="K103" s="22"/>
+      <c r="K103" s="17"/>
       <c r="L103" s="10">
         <f>IFERROR(VLOOKUP($J103,'TAB1'!$A:$B,2,0),0)</f>
         <v>0</v>
@@ -5966,6 +5973,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A84:B84"/>
     <mergeCell ref="J103:K103"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J23:K23"/>
@@ -5975,23 +5999,6 @@
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -6001,11 +6008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7671,14 +7678,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B6"/>
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView topLeftCell="A178" workbookViewId="0">
@@ -9338,7 +9345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView topLeftCell="A160" workbookViewId="0">
